--- a/sofiback/public/uploads/FORMATO DE STOCK.xlsx
+++ b/sofiback/public/uploads/FORMATO DE STOCK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adimer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F321BE-E2B4-41EB-8405-EF816C4A9421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C9B4BF-0AE5-4577-BFED-5BC664DF6ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D2F416F3-D4B9-4A6B-A7CA-B672ACF68326}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="616">
   <si>
     <t>Cod. Producto</t>
   </si>
@@ -1861,6 +1861,18 @@
   </si>
   <si>
     <t>TAMBAQUI-PACU CONGELADO AL VACIO</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -1907,7 +1919,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1930,11 +1942,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1944,6 +1967,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2258,10 +2282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710009E2-DDEC-4EEF-83C0-A24B8580FFE9}">
-  <dimension ref="A1:G291"/>
+  <dimension ref="A1:H291"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B264" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2273,7 +2297,7 @@
     <col min="7" max="7" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2295,8 +2319,11 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="9" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -2318,8 +2345,11 @@
       <c r="G2" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -2341,8 +2371,11 @@
       <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -2364,8 +2397,11 @@
       <c r="G4" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -2387,8 +2423,11 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -2410,8 +2449,11 @@
       <c r="G6" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -2433,8 +2475,11 @@
       <c r="G7" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -2456,8 +2501,11 @@
       <c r="G8" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -2479,8 +2527,11 @@
       <c r="G9" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
@@ -2502,8 +2553,11 @@
       <c r="G10" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
@@ -2525,8 +2579,11 @@
       <c r="G11" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
@@ -2548,8 +2605,11 @@
       <c r="G12" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
@@ -2571,8 +2631,11 @@
       <c r="G13" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
@@ -2594,8 +2657,11 @@
       <c r="G14" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>33</v>
       </c>
@@ -2617,8 +2683,11 @@
       <c r="G15" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>35</v>
       </c>
@@ -2640,8 +2709,11 @@
       <c r="G16" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>37</v>
       </c>
@@ -2663,8 +2735,11 @@
       <c r="G17" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>39</v>
       </c>
@@ -2686,8 +2761,11 @@
       <c r="G18" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>41</v>
       </c>
@@ -2709,8 +2787,11 @@
       <c r="G19" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>44</v>
       </c>
@@ -2732,8 +2813,11 @@
       <c r="G20" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>46</v>
       </c>
@@ -2755,8 +2839,11 @@
       <c r="G21" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>49</v>
       </c>
@@ -2778,8 +2865,11 @@
       <c r="G22" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>52</v>
       </c>
@@ -2801,8 +2891,11 @@
       <c r="G23" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>54</v>
       </c>
@@ -2824,8 +2917,11 @@
       <c r="G24" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>56</v>
       </c>
@@ -2847,8 +2943,11 @@
       <c r="G25" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>58</v>
       </c>
@@ -2870,8 +2969,11 @@
       <c r="G26" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>61</v>
       </c>
@@ -2893,8 +2995,11 @@
       <c r="G27" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>63</v>
       </c>
@@ -2916,8 +3021,11 @@
       <c r="G28" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>66</v>
       </c>
@@ -2939,8 +3047,11 @@
       <c r="G29" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>68</v>
       </c>
@@ -2962,8 +3073,11 @@
       <c r="G30" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>70</v>
       </c>
@@ -2985,8 +3099,11 @@
       <c r="G31" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>73</v>
       </c>
@@ -3008,8 +3125,11 @@
       <c r="G32" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>76</v>
       </c>
@@ -3031,8 +3151,11 @@
       <c r="G33" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>78</v>
       </c>
@@ -3054,8 +3177,11 @@
       <c r="G34" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>80</v>
       </c>
@@ -3077,8 +3203,11 @@
       <c r="G35" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>82</v>
       </c>
@@ -3100,8 +3229,11 @@
       <c r="G36" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>85</v>
       </c>
@@ -3123,8 +3255,11 @@
       <c r="G37" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>87</v>
       </c>
@@ -3146,8 +3281,11 @@
       <c r="G38" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>89</v>
       </c>
@@ -3169,8 +3307,11 @@
       <c r="G39" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>91</v>
       </c>
@@ -3192,8 +3333,11 @@
       <c r="G40" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>93</v>
       </c>
@@ -3215,8 +3359,11 @@
       <c r="G41" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>95</v>
       </c>
@@ -3238,8 +3385,11 @@
       <c r="G42" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>97</v>
       </c>
@@ -3261,8 +3411,11 @@
       <c r="G43" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>99</v>
       </c>
@@ -3284,8 +3437,11 @@
       <c r="G44" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>102</v>
       </c>
@@ -3307,8 +3463,11 @@
       <c r="G45" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>104</v>
       </c>
@@ -3330,8 +3489,11 @@
       <c r="G46" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>106</v>
       </c>
@@ -3353,8 +3515,11 @@
       <c r="G47" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>108</v>
       </c>
@@ -3376,8 +3541,11 @@
       <c r="G48" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>110</v>
       </c>
@@ -3399,8 +3567,11 @@
       <c r="G49" s="5" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>113</v>
       </c>
@@ -3422,8 +3593,11 @@
       <c r="G50" s="5" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>115</v>
       </c>
@@ -3445,8 +3619,11 @@
       <c r="G51" s="5" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>117</v>
       </c>
@@ -3468,8 +3645,11 @@
       <c r="G52" s="5" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>120</v>
       </c>
@@ -3491,8 +3671,11 @@
       <c r="G53" s="5" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>122</v>
       </c>
@@ -3514,8 +3697,11 @@
       <c r="G54" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>125</v>
       </c>
@@ -3537,8 +3723,11 @@
       <c r="G55" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>127</v>
       </c>
@@ -3560,8 +3749,11 @@
       <c r="G56" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H56" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>129</v>
       </c>
@@ -3583,8 +3775,11 @@
       <c r="G57" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>131</v>
       </c>
@@ -3606,8 +3801,11 @@
       <c r="G58" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>133</v>
       </c>
@@ -3629,8 +3827,11 @@
       <c r="G59" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>135</v>
       </c>
@@ -3652,8 +3853,11 @@
       <c r="G60" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>137</v>
       </c>
@@ -3675,8 +3879,11 @@
       <c r="G61" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>139</v>
       </c>
@@ -3698,8 +3905,11 @@
       <c r="G62" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H62" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>141</v>
       </c>
@@ -3721,8 +3931,11 @@
       <c r="G63" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>143</v>
       </c>
@@ -3744,8 +3957,11 @@
       <c r="G64" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>145</v>
       </c>
@@ -3767,8 +3983,11 @@
       <c r="G65" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H65" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>147</v>
       </c>
@@ -3790,8 +4009,11 @@
       <c r="G66" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>149</v>
       </c>
@@ -3813,8 +4035,11 @@
       <c r="G67" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H67" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>151</v>
       </c>
@@ -3836,8 +4061,11 @@
       <c r="G68" s="5" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H68" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>154</v>
       </c>
@@ -3859,8 +4087,11 @@
       <c r="G69" s="5" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H69" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>156</v>
       </c>
@@ -3882,8 +4113,11 @@
       <c r="G70" s="5" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H70" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>158</v>
       </c>
@@ -3905,8 +4139,11 @@
       <c r="G71" s="5" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H71" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>160</v>
       </c>
@@ -3928,8 +4165,11 @@
       <c r="G72" s="5" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H72" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>162</v>
       </c>
@@ -3951,8 +4191,11 @@
       <c r="G73" s="5" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H73" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>164</v>
       </c>
@@ -3974,8 +4217,11 @@
       <c r="G74" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H74" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>167</v>
       </c>
@@ -3997,8 +4243,11 @@
       <c r="G75" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H75" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>169</v>
       </c>
@@ -4020,8 +4269,11 @@
       <c r="G76" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H76" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>171</v>
       </c>
@@ -4043,8 +4295,11 @@
       <c r="G77" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H77" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>173</v>
       </c>
@@ -4066,8 +4321,11 @@
       <c r="G78" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H78" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>175</v>
       </c>
@@ -4089,8 +4347,11 @@
       <c r="G79" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H79" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>177</v>
       </c>
@@ -4112,8 +4373,11 @@
       <c r="G80" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H80" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>179</v>
       </c>
@@ -4135,8 +4399,11 @@
       <c r="G81" s="5" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H81" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>182</v>
       </c>
@@ -4158,8 +4425,11 @@
       <c r="G82" s="5" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H82" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>184</v>
       </c>
@@ -4181,8 +4451,11 @@
       <c r="G83" s="5" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H83" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>186</v>
       </c>
@@ -4204,8 +4477,11 @@
       <c r="G84" s="5" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H84" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>188</v>
       </c>
@@ -4227,8 +4503,11 @@
       <c r="G85" s="5" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H85" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>190</v>
       </c>
@@ -4250,8 +4529,11 @@
       <c r="G86" s="5" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H86" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>192</v>
       </c>
@@ -4273,8 +4555,11 @@
       <c r="G87" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H87" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>194</v>
       </c>
@@ -4296,8 +4581,11 @@
       <c r="G88" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H88" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>196</v>
       </c>
@@ -4319,8 +4607,11 @@
       <c r="G89" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H89" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>198</v>
       </c>
@@ -4342,8 +4633,11 @@
       <c r="G90" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H90" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>200</v>
       </c>
@@ -4365,8 +4659,11 @@
       <c r="G91" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H91" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>202</v>
       </c>
@@ -4388,8 +4685,11 @@
       <c r="G92" s="5" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H92" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>205</v>
       </c>
@@ -4411,8 +4711,11 @@
       <c r="G93" s="5" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H93" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>207</v>
       </c>
@@ -4434,8 +4737,11 @@
       <c r="G94" s="5" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H94" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>209</v>
       </c>
@@ -4457,8 +4763,11 @@
       <c r="G95" s="5" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H95" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>211</v>
       </c>
@@ -4480,8 +4789,11 @@
       <c r="G96" s="5" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H96" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>213</v>
       </c>
@@ -4503,8 +4815,11 @@
       <c r="G97" s="5" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H97" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>215</v>
       </c>
@@ -4526,8 +4841,11 @@
       <c r="G98" s="5" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H98" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>217</v>
       </c>
@@ -4549,8 +4867,11 @@
       <c r="G99" s="5" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H99" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>219</v>
       </c>
@@ -4572,8 +4893,11 @@
       <c r="G100" s="5" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H100" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>221</v>
       </c>
@@ -4595,8 +4919,11 @@
       <c r="G101" s="5" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H101" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>223</v>
       </c>
@@ -4618,8 +4945,11 @@
       <c r="G102" s="5" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H102" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>225</v>
       </c>
@@ -4641,8 +4971,11 @@
       <c r="G103" s="5" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H103" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>227</v>
       </c>
@@ -4664,8 +4997,11 @@
       <c r="G104" s="5" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H104" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>229</v>
       </c>
@@ -4687,8 +5023,11 @@
       <c r="G105" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H105" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>231</v>
       </c>
@@ -4710,8 +5049,11 @@
       <c r="G106" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H106" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>233</v>
       </c>
@@ -4733,8 +5075,11 @@
       <c r="G107" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H107" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>235</v>
       </c>
@@ -4756,8 +5101,11 @@
       <c r="G108" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H108" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>237</v>
       </c>
@@ -4779,8 +5127,11 @@
       <c r="G109" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H109" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>239</v>
       </c>
@@ -4802,8 +5153,11 @@
       <c r="G110" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H110" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>241</v>
       </c>
@@ -4825,8 +5179,11 @@
       <c r="G111" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H111" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>243</v>
       </c>
@@ -4848,8 +5205,11 @@
       <c r="G112" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H112" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>245</v>
       </c>
@@ -4871,8 +5231,11 @@
       <c r="G113" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H113" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>247</v>
       </c>
@@ -4894,8 +5257,11 @@
       <c r="G114" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H114" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>249</v>
       </c>
@@ -4917,8 +5283,11 @@
       <c r="G115" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H115" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
         <v>251</v>
       </c>
@@ -4940,8 +5309,11 @@
       <c r="G116" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H116" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>253</v>
       </c>
@@ -4963,8 +5335,11 @@
       <c r="G117" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H117" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>255</v>
       </c>
@@ -4986,8 +5361,11 @@
       <c r="G118" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H118" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>257</v>
       </c>
@@ -5009,8 +5387,11 @@
       <c r="G119" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H119" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>259</v>
       </c>
@@ -5032,8 +5413,11 @@
       <c r="G120" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H120" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
         <v>261</v>
       </c>
@@ -5055,8 +5439,11 @@
       <c r="G121" s="5" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H121" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>264</v>
       </c>
@@ -5078,8 +5465,11 @@
       <c r="G122" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H122" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>266</v>
       </c>
@@ -5101,8 +5491,11 @@
       <c r="G123" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H123" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>268</v>
       </c>
@@ -5124,8 +5517,11 @@
       <c r="G124" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H124" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>270</v>
       </c>
@@ -5147,8 +5543,11 @@
       <c r="G125" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H125" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
         <v>272</v>
       </c>
@@ -5170,8 +5569,11 @@
       <c r="G126" s="5" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H126" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>275</v>
       </c>
@@ -5193,8 +5595,11 @@
       <c r="G127" s="5" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H127" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>277</v>
       </c>
@@ -5216,8 +5621,11 @@
       <c r="G128" s="5" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H128" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>279</v>
       </c>
@@ -5239,8 +5647,11 @@
       <c r="G129" s="5" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H129" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>281</v>
       </c>
@@ -5262,8 +5673,11 @@
       <c r="G130" s="5" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H130" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
         <v>283</v>
       </c>
@@ -5285,8 +5699,11 @@
       <c r="G131" s="5" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H131" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
         <v>285</v>
       </c>
@@ -5308,8 +5725,11 @@
       <c r="G132" s="5" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H132" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>287</v>
       </c>
@@ -5331,8 +5751,11 @@
       <c r="G133" s="5" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H133" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>289</v>
       </c>
@@ -5354,8 +5777,11 @@
       <c r="G134" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H134" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>291</v>
       </c>
@@ -5377,8 +5803,11 @@
       <c r="G135" s="5" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H135" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>293</v>
       </c>
@@ -5400,8 +5829,11 @@
       <c r="G136" s="5" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H136" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
         <v>296</v>
       </c>
@@ -5423,8 +5855,11 @@
       <c r="G137" s="5" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H137" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>298</v>
       </c>
@@ -5446,8 +5881,11 @@
       <c r="G138" s="5" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H138" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
         <v>300</v>
       </c>
@@ -5469,8 +5907,11 @@
       <c r="G139" s="5" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H139" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
         <v>303</v>
       </c>
@@ -5492,8 +5933,11 @@
       <c r="G140" s="5" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H140" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
         <v>305</v>
       </c>
@@ -5515,8 +5959,11 @@
       <c r="G141" s="5" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H141" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
         <v>307</v>
       </c>
@@ -5538,8 +5985,11 @@
       <c r="G142" s="5" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H142" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
         <v>309</v>
       </c>
@@ -5561,8 +6011,11 @@
       <c r="G143" s="5" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H143" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>311</v>
       </c>
@@ -5584,8 +6037,11 @@
       <c r="G144" s="5" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H144" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
         <v>313</v>
       </c>
@@ -5607,8 +6063,11 @@
       <c r="G145" s="5" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H145" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>315</v>
       </c>
@@ -5630,8 +6089,11 @@
       <c r="G146" s="5" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H146" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
         <v>317</v>
       </c>
@@ -5653,8 +6115,11 @@
       <c r="G147" s="5" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H147" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>319</v>
       </c>
@@ -5676,8 +6141,11 @@
       <c r="G148" s="5" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H148" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
         <v>321</v>
       </c>
@@ -5699,8 +6167,11 @@
       <c r="G149" s="5" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H149" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
         <v>323</v>
       </c>
@@ -5722,8 +6193,11 @@
       <c r="G150" s="5" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H150" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
         <v>325</v>
       </c>
@@ -5745,8 +6219,11 @@
       <c r="G151" s="5" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H151" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>327</v>
       </c>
@@ -5768,8 +6245,11 @@
       <c r="G152" s="5" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H152" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
         <v>329</v>
       </c>
@@ -5791,8 +6271,11 @@
       <c r="G153" s="5" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H153" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>331</v>
       </c>
@@ -5814,8 +6297,11 @@
       <c r="G154" s="5" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H154" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
         <v>333</v>
       </c>
@@ -5837,8 +6323,11 @@
       <c r="G155" s="5" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H155" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
         <v>335</v>
       </c>
@@ -5860,8 +6349,11 @@
       <c r="G156" s="5" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H156" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
         <v>337</v>
       </c>
@@ -5883,8 +6375,11 @@
       <c r="G157" s="5" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H157" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
         <v>339</v>
       </c>
@@ -5906,8 +6401,11 @@
       <c r="G158" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H158" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
         <v>341</v>
       </c>
@@ -5929,8 +6427,11 @@
       <c r="G159" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H159" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>343</v>
       </c>
@@ -5952,8 +6453,11 @@
       <c r="G160" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H160" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
         <v>345</v>
       </c>
@@ -5975,8 +6479,11 @@
       <c r="G161" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H161" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>347</v>
       </c>
@@ -5998,8 +6505,11 @@
       <c r="G162" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H162" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
         <v>349</v>
       </c>
@@ -6021,8 +6531,11 @@
       <c r="G163" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H163" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
         <v>351</v>
       </c>
@@ -6044,8 +6557,11 @@
       <c r="G164" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H164" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
         <v>353</v>
       </c>
@@ -6067,8 +6583,11 @@
       <c r="G165" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H165" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
         <v>355</v>
       </c>
@@ -6090,8 +6609,11 @@
       <c r="G166" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H166" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
         <v>357</v>
       </c>
@@ -6113,8 +6635,11 @@
       <c r="G167" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H167" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>359</v>
       </c>
@@ -6136,8 +6661,11 @@
       <c r="G168" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H168" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
         <v>361</v>
       </c>
@@ -6159,8 +6687,11 @@
       <c r="G169" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H169" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>363</v>
       </c>
@@ -6182,8 +6713,11 @@
       <c r="G170" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H170" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
         <v>365</v>
       </c>
@@ -6205,8 +6739,11 @@
       <c r="G171" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H171" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
         <v>367</v>
       </c>
@@ -6228,8 +6765,11 @@
       <c r="G172" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H172" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
         <v>369</v>
       </c>
@@ -6251,8 +6791,11 @@
       <c r="G173" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H173" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
         <v>371</v>
       </c>
@@ -6274,8 +6817,11 @@
       <c r="G174" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H174" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
         <v>373</v>
       </c>
@@ -6297,8 +6843,11 @@
       <c r="G175" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H175" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
         <v>375</v>
       </c>
@@ -6320,8 +6869,11 @@
       <c r="G176" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H176" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
         <v>377</v>
       </c>
@@ -6343,8 +6895,11 @@
       <c r="G177" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H177" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
         <v>379</v>
       </c>
@@ -6366,8 +6921,11 @@
       <c r="G178" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H178" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
         <v>381</v>
       </c>
@@ -6389,8 +6947,11 @@
       <c r="G179" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H179" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
         <v>383</v>
       </c>
@@ -6412,8 +6973,11 @@
       <c r="G180" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H180" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
         <v>385</v>
       </c>
@@ -6435,8 +6999,11 @@
       <c r="G181" s="5" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H181" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
         <v>388</v>
       </c>
@@ -6458,8 +7025,11 @@
       <c r="G182" s="5" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H182" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
         <v>390</v>
       </c>
@@ -6481,8 +7051,11 @@
       <c r="G183" s="5" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H183" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
         <v>392</v>
       </c>
@@ -6504,8 +7077,11 @@
       <c r="G184" s="5" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H184" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
         <v>394</v>
       </c>
@@ -6527,8 +7103,11 @@
       <c r="G185" s="5" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H185" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
         <v>396</v>
       </c>
@@ -6550,8 +7129,11 @@
       <c r="G186" s="5" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H186" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
         <v>398</v>
       </c>
@@ -6573,8 +7155,11 @@
       <c r="G187" s="5" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H187" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
         <v>401</v>
       </c>
@@ -6596,8 +7181,11 @@
       <c r="G188" s="5" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H188" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
         <v>403</v>
       </c>
@@ -6619,8 +7207,11 @@
       <c r="G189" s="5" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H189" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
         <v>405</v>
       </c>
@@ -6642,8 +7233,11 @@
       <c r="G190" s="5" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H190" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
         <v>407</v>
       </c>
@@ -6665,8 +7259,11 @@
       <c r="G191" s="5" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H191" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
         <v>409</v>
       </c>
@@ -6688,8 +7285,11 @@
       <c r="G192" s="5" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H192" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
         <v>411</v>
       </c>
@@ -6711,8 +7311,11 @@
       <c r="G193" s="5" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H193" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
         <v>413</v>
       </c>
@@ -6734,8 +7337,11 @@
       <c r="G194" s="5" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H194" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
         <v>415</v>
       </c>
@@ -6757,8 +7363,11 @@
       <c r="G195" s="5" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H195" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
         <v>417</v>
       </c>
@@ -6780,8 +7389,11 @@
       <c r="G196" s="5" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H196" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
         <v>419</v>
       </c>
@@ -6803,8 +7415,11 @@
       <c r="G197" s="5" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H197" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
         <v>422</v>
       </c>
@@ -6826,8 +7441,11 @@
       <c r="G198" s="5" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H198" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
         <v>424</v>
       </c>
@@ -6849,8 +7467,11 @@
       <c r="G199" s="5" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H199" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
         <v>426</v>
       </c>
@@ -6872,8 +7493,11 @@
       <c r="G200" s="5" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H200" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
         <v>428</v>
       </c>
@@ -6895,8 +7519,11 @@
       <c r="G201" s="5" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H201" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
         <v>430</v>
       </c>
@@ -6918,8 +7545,11 @@
       <c r="G202" s="5" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H202" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
         <v>432</v>
       </c>
@@ -6941,8 +7571,11 @@
       <c r="G203" s="5" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H203" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
         <v>434</v>
       </c>
@@ -6964,8 +7597,11 @@
       <c r="G204" s="5" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H204" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
         <v>436</v>
       </c>
@@ -6987,8 +7623,11 @@
       <c r="G205" s="5" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H205" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
         <v>438</v>
       </c>
@@ -7010,8 +7649,11 @@
       <c r="G206" s="5" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H206" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
         <v>440</v>
       </c>
@@ -7033,8 +7675,11 @@
       <c r="G207" s="5" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H207" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
         <v>442</v>
       </c>
@@ -7056,8 +7701,11 @@
       <c r="G208" s="5" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H208" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
         <v>444</v>
       </c>
@@ -7079,8 +7727,11 @@
       <c r="G209" s="5" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H209" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
         <v>446</v>
       </c>
@@ -7102,8 +7753,11 @@
       <c r="G210" s="5" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H210" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
         <v>448</v>
       </c>
@@ -7125,8 +7779,11 @@
       <c r="G211" s="5" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H211" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
         <v>451</v>
       </c>
@@ -7148,8 +7805,11 @@
       <c r="G212" s="5" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H212" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
         <v>453</v>
       </c>
@@ -7171,8 +7831,11 @@
       <c r="G213" s="5" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H213" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
         <v>456</v>
       </c>
@@ -7194,8 +7857,11 @@
       <c r="G214" s="5" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H214" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
         <v>458</v>
       </c>
@@ -7217,8 +7883,11 @@
       <c r="G215" s="5" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H215" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
         <v>460</v>
       </c>
@@ -7240,8 +7909,11 @@
       <c r="G216" s="5" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H216" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
         <v>462</v>
       </c>
@@ -7263,8 +7935,11 @@
       <c r="G217" s="5" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H217" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
         <v>464</v>
       </c>
@@ -7286,8 +7961,11 @@
       <c r="G218" s="5" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H218" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
         <v>466</v>
       </c>
@@ -7309,8 +7987,11 @@
       <c r="G219" s="5" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H219" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
         <v>468</v>
       </c>
@@ -7332,8 +8013,11 @@
       <c r="G220" s="5" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H220" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
         <v>470</v>
       </c>
@@ -7355,8 +8039,11 @@
       <c r="G221" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H221" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
         <v>472</v>
       </c>
@@ -7378,8 +8065,11 @@
       <c r="G222" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H222" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
         <v>474</v>
       </c>
@@ -7401,8 +8091,11 @@
       <c r="G223" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H223" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
         <v>476</v>
       </c>
@@ -7424,8 +8117,11 @@
       <c r="G224" s="5" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H224" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
         <v>478</v>
       </c>
@@ -7447,8 +8143,11 @@
       <c r="G225" s="5" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H225" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
         <v>480</v>
       </c>
@@ -7470,8 +8169,11 @@
       <c r="G226" s="5" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H226" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
         <v>482</v>
       </c>
@@ -7493,8 +8195,11 @@
       <c r="G227" s="5" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H227" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
         <v>484</v>
       </c>
@@ -7516,8 +8221,11 @@
       <c r="G228" s="5" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H228" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
         <v>486</v>
       </c>
@@ -7539,8 +8247,11 @@
       <c r="G229" s="5" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H229" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
         <v>488</v>
       </c>
@@ -7562,8 +8273,11 @@
       <c r="G230" s="5" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H230" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
         <v>490</v>
       </c>
@@ -7585,8 +8299,11 @@
       <c r="G231" s="5" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H231" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
         <v>492</v>
       </c>
@@ -7608,8 +8325,11 @@
       <c r="G232" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H232" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
         <v>494</v>
       </c>
@@ -7631,8 +8351,11 @@
       <c r="G233" s="5" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H233" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
         <v>496</v>
       </c>
@@ -7654,8 +8377,11 @@
       <c r="G234" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H234" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
         <v>498</v>
       </c>
@@ -7677,8 +8403,11 @@
       <c r="G235" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H235" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
         <v>500</v>
       </c>
@@ -7700,8 +8429,11 @@
       <c r="G236" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H236" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
         <v>502</v>
       </c>
@@ -7723,8 +8455,11 @@
       <c r="G237" s="5" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H237" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
         <v>504</v>
       </c>
@@ -7746,8 +8481,11 @@
       <c r="G238" s="5" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H238" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
         <v>506</v>
       </c>
@@ -7769,8 +8507,11 @@
       <c r="G239" s="5" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H239" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
         <v>508</v>
       </c>
@@ -7792,8 +8533,11 @@
       <c r="G240" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H240" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
         <v>510</v>
       </c>
@@ -7815,8 +8559,11 @@
       <c r="G241" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H241" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
         <v>512</v>
       </c>
@@ -7838,8 +8585,11 @@
       <c r="G242" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H242" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
         <v>514</v>
       </c>
@@ -7861,8 +8611,11 @@
       <c r="G243" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H243" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
         <v>516</v>
       </c>
@@ -7884,8 +8637,11 @@
       <c r="G244" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H244" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
         <v>518</v>
       </c>
@@ -7907,8 +8663,11 @@
       <c r="G245" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H245" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
         <v>520</v>
       </c>
@@ -7930,8 +8689,11 @@
       <c r="G246" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H246" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
         <v>522</v>
       </c>
@@ -7953,8 +8715,11 @@
       <c r="G247" s="5" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H247" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
         <v>524</v>
       </c>
@@ -7976,8 +8741,11 @@
       <c r="G248" s="5" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H248" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
         <v>526</v>
       </c>
@@ -7999,8 +8767,11 @@
       <c r="G249" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H249" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
         <v>528</v>
       </c>
@@ -8022,8 +8793,11 @@
       <c r="G250" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H250" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
         <v>530</v>
       </c>
@@ -8045,8 +8819,11 @@
       <c r="G251" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H251" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
         <v>532</v>
       </c>
@@ -8068,8 +8845,11 @@
       <c r="G252" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H252" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
         <v>534</v>
       </c>
@@ -8091,8 +8871,11 @@
       <c r="G253" s="5" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H253" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
         <v>536</v>
       </c>
@@ -8114,8 +8897,11 @@
       <c r="G254" s="5" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H254" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
         <v>538</v>
       </c>
@@ -8137,8 +8923,11 @@
       <c r="G255" s="5" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H255" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
         <v>540</v>
       </c>
@@ -8160,8 +8949,11 @@
       <c r="G256" s="5" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H256" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
         <v>542</v>
       </c>
@@ -8183,8 +8975,11 @@
       <c r="G257" s="5" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H257" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
         <v>544</v>
       </c>
@@ -8206,8 +9001,11 @@
       <c r="G258" s="5" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H258" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
         <v>546</v>
       </c>
@@ -8229,8 +9027,11 @@
       <c r="G259" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H259" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="4" t="s">
         <v>548</v>
       </c>
@@ -8252,8 +9053,11 @@
       <c r="G260" s="5" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H260" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
         <v>550</v>
       </c>
@@ -8275,8 +9079,11 @@
       <c r="G261" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H261" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="4" t="s">
         <v>552</v>
       </c>
@@ -8298,8 +9105,11 @@
       <c r="G262" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H262" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="4" t="s">
         <v>554</v>
       </c>
@@ -8321,8 +9131,11 @@
       <c r="G263" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H263" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
         <v>556</v>
       </c>
@@ -8344,8 +9157,11 @@
       <c r="G264" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H264" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="4" t="s">
         <v>558</v>
       </c>
@@ -8367,8 +9183,11 @@
       <c r="G265" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H265" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
         <v>560</v>
       </c>
@@ -8390,8 +9209,11 @@
       <c r="G266" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H266" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
         <v>562</v>
       </c>
@@ -8413,8 +9235,11 @@
       <c r="G267" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H267" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
         <v>563</v>
       </c>
@@ -8436,8 +9261,11 @@
       <c r="G268" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H268" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="4" t="s">
         <v>565</v>
       </c>
@@ -8459,8 +9287,11 @@
       <c r="G269" s="5" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H269" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
         <v>567</v>
       </c>
@@ -8482,8 +9313,11 @@
       <c r="G270" s="5" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H270" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
         <v>569</v>
       </c>
@@ -8505,8 +9339,11 @@
       <c r="G271" s="5" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H271" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="4" t="s">
         <v>571</v>
       </c>
@@ -8528,8 +9365,11 @@
       <c r="G272" s="5" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H272" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" s="4" t="s">
         <v>573</v>
       </c>
@@ -8551,8 +9391,11 @@
       <c r="G273" s="5" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H273" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
         <v>575</v>
       </c>
@@ -8574,8 +9417,11 @@
       <c r="G274" s="5" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H274" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" s="4" t="s">
         <v>577</v>
       </c>
@@ -8597,8 +9443,11 @@
       <c r="G275" s="5" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H275" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" s="4" t="s">
         <v>579</v>
       </c>
@@ -8620,8 +9469,11 @@
       <c r="G276" s="5" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H276" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="4" t="s">
         <v>581</v>
       </c>
@@ -8643,8 +9495,11 @@
       <c r="G277" s="5" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H277" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" s="4" t="s">
         <v>583</v>
       </c>
@@ -8666,8 +9521,11 @@
       <c r="G278" s="5" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H278" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" s="4" t="s">
         <v>585</v>
       </c>
@@ -8689,8 +9547,11 @@
       <c r="G279" s="5" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H279" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" s="4" t="s">
         <v>587</v>
       </c>
@@ -8712,8 +9573,11 @@
       <c r="G280" s="5" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H280" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" s="4" t="s">
         <v>589</v>
       </c>
@@ -8735,8 +9599,11 @@
       <c r="G281" s="5" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H281" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" s="4" t="s">
         <v>591</v>
       </c>
@@ -8758,8 +9625,11 @@
       <c r="G282" s="5" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H282" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" s="4" t="s">
         <v>593</v>
       </c>
@@ -8781,8 +9651,11 @@
       <c r="G283" s="5" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H283" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="4" t="s">
         <v>595</v>
       </c>
@@ -8804,8 +9677,11 @@
       <c r="G284" s="5" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H284" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" s="4" t="s">
         <v>597</v>
       </c>
@@ -8827,8 +9703,11 @@
       <c r="G285" s="5" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H285" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" s="4" t="s">
         <v>599</v>
       </c>
@@ -8850,8 +9729,11 @@
       <c r="G286" s="5" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H286" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" s="4" t="s">
         <v>601</v>
       </c>
@@ -8873,8 +9755,11 @@
       <c r="G287" s="5" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H287" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" s="4" t="s">
         <v>603</v>
       </c>
@@ -8896,8 +9781,11 @@
       <c r="G288" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H288" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" s="4" t="s">
         <v>605</v>
       </c>
@@ -8919,8 +9807,11 @@
       <c r="G289" s="5" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H289" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" s="4" t="s">
         <v>607</v>
       </c>
@@ -8942,8 +9833,11 @@
       <c r="G290" s="5" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H290" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
         <v>609</v>
       </c>
@@ -8964,6 +9858,9 @@
       </c>
       <c r="G291" s="5" t="s">
         <v>204</v>
+      </c>
+      <c r="H291" t="s">
+        <v>615</v>
       </c>
     </row>
   </sheetData>

--- a/sofiback/public/uploads/FORMATO DE STOCK.xlsx
+++ b/sofiback/public/uploads/FORMATO DE STOCK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adimer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C9B4BF-0AE5-4577-BFED-5BC664DF6ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FE65E2-AB07-425F-82E1-7C0FF7B96F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D2F416F3-D4B9-4A6B-A7CA-B672ACF68326}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="615">
   <si>
     <t>Cod. Producto</t>
   </si>
@@ -1870,9 +1870,6 @@
   </si>
   <si>
     <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
 </sst>
 </file>
@@ -2284,8 +2281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710009E2-DDEC-4EEF-83C0-A24B8580FFE9}">
   <dimension ref="A1:H291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B264" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H288"/>
+    <sheetView tabSelected="1" topLeftCell="B265" workbookViewId="0">
+      <selection activeCell="H146" sqref="H146:H291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2372,7 +2369,7 @@
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -2398,7 +2395,7 @@
         <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -2424,7 +2421,7 @@
         <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -2450,7 +2447,7 @@
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -2476,7 +2473,7 @@
         <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -2502,7 +2499,7 @@
         <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -2528,7 +2525,7 @@
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -2554,7 +2551,7 @@
         <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2580,7 +2577,7 @@
         <v>8</v>
       </c>
       <c r="H11" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -2606,7 +2603,7 @@
         <v>8</v>
       </c>
       <c r="H12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -2632,7 +2629,7 @@
         <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -2658,7 +2655,7 @@
         <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -2684,7 +2681,7 @@
         <v>8</v>
       </c>
       <c r="H15" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -2710,7 +2707,7 @@
         <v>8</v>
       </c>
       <c r="H16" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -2736,7 +2733,7 @@
         <v>8</v>
       </c>
       <c r="H17" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -2762,7 +2759,7 @@
         <v>8</v>
       </c>
       <c r="H18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -2788,7 +2785,7 @@
         <v>43</v>
       </c>
       <c r="H19" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -2814,7 +2811,7 @@
         <v>43</v>
       </c>
       <c r="H20" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -2840,7 +2837,7 @@
         <v>48</v>
       </c>
       <c r="H21" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -2866,7 +2863,7 @@
         <v>51</v>
       </c>
       <c r="H22" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -2892,7 +2889,7 @@
         <v>48</v>
       </c>
       <c r="H23" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -2918,7 +2915,7 @@
         <v>48</v>
       </c>
       <c r="H24" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -2944,7 +2941,7 @@
         <v>48</v>
       </c>
       <c r="H25" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -2970,7 +2967,7 @@
         <v>60</v>
       </c>
       <c r="H26" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -2996,7 +2993,7 @@
         <v>60</v>
       </c>
       <c r="H27" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -3022,7 +3019,7 @@
         <v>65</v>
       </c>
       <c r="H28" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -3048,7 +3045,7 @@
         <v>65</v>
       </c>
       <c r="H29" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -3074,7 +3071,7 @@
         <v>65</v>
       </c>
       <c r="H30" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -3100,7 +3097,7 @@
         <v>72</v>
       </c>
       <c r="H31" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -3126,7 +3123,7 @@
         <v>75</v>
       </c>
       <c r="H32" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -3152,7 +3149,7 @@
         <v>75</v>
       </c>
       <c r="H33" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -3178,7 +3175,7 @@
         <v>51</v>
       </c>
       <c r="H34" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -3204,7 +3201,7 @@
         <v>51</v>
       </c>
       <c r="H35" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -3230,7 +3227,7 @@
         <v>84</v>
       </c>
       <c r="H36" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -3256,7 +3253,7 @@
         <v>72</v>
       </c>
       <c r="H37" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -3282,7 +3279,7 @@
         <v>72</v>
       </c>
       <c r="H38" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -3308,7 +3305,7 @@
         <v>72</v>
       </c>
       <c r="H39" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -3334,7 +3331,7 @@
         <v>72</v>
       </c>
       <c r="H40" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -3360,7 +3357,7 @@
         <v>72</v>
       </c>
       <c r="H41" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -3386,7 +3383,7 @@
         <v>72</v>
       </c>
       <c r="H42" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -3412,7 +3409,7 @@
         <v>72</v>
       </c>
       <c r="H43" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -3438,7 +3435,7 @@
         <v>101</v>
       </c>
       <c r="H44" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -3464,7 +3461,7 @@
         <v>101</v>
       </c>
       <c r="H45" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -3490,7 +3487,7 @@
         <v>101</v>
       </c>
       <c r="H46" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -3516,7 +3513,7 @@
         <v>101</v>
       </c>
       <c r="H47" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -3542,7 +3539,7 @@
         <v>101</v>
       </c>
       <c r="H48" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -3568,7 +3565,7 @@
         <v>112</v>
       </c>
       <c r="H49" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -3594,7 +3591,7 @@
         <v>112</v>
       </c>
       <c r="H50" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -3620,7 +3617,7 @@
         <v>112</v>
       </c>
       <c r="H51" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -3646,7 +3643,7 @@
         <v>119</v>
       </c>
       <c r="H52" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -3672,7 +3669,7 @@
         <v>119</v>
       </c>
       <c r="H53" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -3698,7 +3695,7 @@
         <v>124</v>
       </c>
       <c r="H54" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -3724,7 +3721,7 @@
         <v>124</v>
       </c>
       <c r="H55" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -3750,7 +3747,7 @@
         <v>124</v>
       </c>
       <c r="H56" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -3776,7 +3773,7 @@
         <v>124</v>
       </c>
       <c r="H57" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -3802,7 +3799,7 @@
         <v>124</v>
       </c>
       <c r="H58" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -3828,7 +3825,7 @@
         <v>124</v>
       </c>
       <c r="H59" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -3854,7 +3851,7 @@
         <v>124</v>
       </c>
       <c r="H60" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -3880,7 +3877,7 @@
         <v>124</v>
       </c>
       <c r="H61" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -3906,7 +3903,7 @@
         <v>124</v>
       </c>
       <c r="H62" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -3932,7 +3929,7 @@
         <v>124</v>
       </c>
       <c r="H63" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -3958,7 +3955,7 @@
         <v>124</v>
       </c>
       <c r="H64" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -3984,7 +3981,7 @@
         <v>124</v>
       </c>
       <c r="H65" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -4010,7 +4007,7 @@
         <v>124</v>
       </c>
       <c r="H66" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -4036,7 +4033,7 @@
         <v>124</v>
       </c>
       <c r="H67" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -4062,7 +4059,7 @@
         <v>153</v>
       </c>
       <c r="H68" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -4088,7 +4085,7 @@
         <v>153</v>
       </c>
       <c r="H69" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -4114,7 +4111,7 @@
         <v>153</v>
       </c>
       <c r="H70" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -4140,7 +4137,7 @@
         <v>153</v>
       </c>
       <c r="H71" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -4166,7 +4163,7 @@
         <v>153</v>
       </c>
       <c r="H72" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -4192,7 +4189,7 @@
         <v>153</v>
       </c>
       <c r="H73" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -4218,7 +4215,7 @@
         <v>166</v>
       </c>
       <c r="H74" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -4244,7 +4241,7 @@
         <v>166</v>
       </c>
       <c r="H75" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -4270,7 +4267,7 @@
         <v>166</v>
       </c>
       <c r="H76" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -4296,7 +4293,7 @@
         <v>166</v>
       </c>
       <c r="H77" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -4322,7 +4319,7 @@
         <v>166</v>
       </c>
       <c r="H78" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -4348,7 +4345,7 @@
         <v>166</v>
       </c>
       <c r="H79" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -4374,7 +4371,7 @@
         <v>166</v>
       </c>
       <c r="H80" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -4400,7 +4397,7 @@
         <v>181</v>
       </c>
       <c r="H81" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -4426,7 +4423,7 @@
         <v>181</v>
       </c>
       <c r="H82" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -4452,7 +4449,7 @@
         <v>181</v>
       </c>
       <c r="H83" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -4478,7 +4475,7 @@
         <v>181</v>
       </c>
       <c r="H84" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -4504,7 +4501,7 @@
         <v>181</v>
       </c>
       <c r="H85" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -4530,7 +4527,7 @@
         <v>181</v>
       </c>
       <c r="H86" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -4556,7 +4553,7 @@
         <v>43</v>
       </c>
       <c r="H87" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -4582,7 +4579,7 @@
         <v>43</v>
       </c>
       <c r="H88" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -4608,7 +4605,7 @@
         <v>43</v>
       </c>
       <c r="H89" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -4634,7 +4631,7 @@
         <v>43</v>
       </c>
       <c r="H90" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -4660,7 +4657,7 @@
         <v>43</v>
       </c>
       <c r="H91" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -4686,7 +4683,7 @@
         <v>204</v>
       </c>
       <c r="H92" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -4712,7 +4709,7 @@
         <v>204</v>
       </c>
       <c r="H93" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
@@ -4738,7 +4735,7 @@
         <v>204</v>
       </c>
       <c r="H94" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -4764,7 +4761,7 @@
         <v>204</v>
       </c>
       <c r="H95" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -4790,7 +4787,7 @@
         <v>204</v>
       </c>
       <c r="H96" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -4816,7 +4813,7 @@
         <v>204</v>
       </c>
       <c r="H97" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
@@ -4842,7 +4839,7 @@
         <v>204</v>
       </c>
       <c r="H98" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
@@ -4868,7 +4865,7 @@
         <v>204</v>
       </c>
       <c r="H99" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
@@ -4894,7 +4891,7 @@
         <v>204</v>
       </c>
       <c r="H100" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -4920,7 +4917,7 @@
         <v>204</v>
       </c>
       <c r="H101" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
@@ -4946,7 +4943,7 @@
         <v>204</v>
       </c>
       <c r="H102" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
@@ -4972,7 +4969,7 @@
         <v>204</v>
       </c>
       <c r="H103" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -4998,7 +4995,7 @@
         <v>204</v>
       </c>
       <c r="H104" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
@@ -5024,7 +5021,7 @@
         <v>51</v>
       </c>
       <c r="H105" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
@@ -5050,7 +5047,7 @@
         <v>51</v>
       </c>
       <c r="H106" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
@@ -5076,7 +5073,7 @@
         <v>51</v>
       </c>
       <c r="H107" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
@@ -5102,7 +5099,7 @@
         <v>51</v>
       </c>
       <c r="H108" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
@@ -5128,7 +5125,7 @@
         <v>51</v>
       </c>
       <c r="H109" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
@@ -5154,7 +5151,7 @@
         <v>51</v>
       </c>
       <c r="H110" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
@@ -5180,7 +5177,7 @@
         <v>51</v>
       </c>
       <c r="H111" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
@@ -5206,7 +5203,7 @@
         <v>51</v>
       </c>
       <c r="H112" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
@@ -5232,7 +5229,7 @@
         <v>51</v>
       </c>
       <c r="H113" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
@@ -5258,7 +5255,7 @@
         <v>51</v>
       </c>
       <c r="H114" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
@@ -5284,7 +5281,7 @@
         <v>51</v>
       </c>
       <c r="H115" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
@@ -5310,7 +5307,7 @@
         <v>51</v>
       </c>
       <c r="H116" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
@@ -5336,7 +5333,7 @@
         <v>51</v>
       </c>
       <c r="H117" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
@@ -5362,7 +5359,7 @@
         <v>51</v>
       </c>
       <c r="H118" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
@@ -5388,7 +5385,7 @@
         <v>51</v>
       </c>
       <c r="H119" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
@@ -5414,7 +5411,7 @@
         <v>51</v>
       </c>
       <c r="H120" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
@@ -5440,7 +5437,7 @@
         <v>263</v>
       </c>
       <c r="H121" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
@@ -5466,7 +5463,7 @@
         <v>51</v>
       </c>
       <c r="H122" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
@@ -5492,7 +5489,7 @@
         <v>51</v>
       </c>
       <c r="H123" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
@@ -5518,7 +5515,7 @@
         <v>51</v>
       </c>
       <c r="H124" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
@@ -5544,7 +5541,7 @@
         <v>51</v>
       </c>
       <c r="H125" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
@@ -5570,7 +5567,7 @@
         <v>274</v>
       </c>
       <c r="H126" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
@@ -5596,7 +5593,7 @@
         <v>274</v>
       </c>
       <c r="H127" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
@@ -5622,7 +5619,7 @@
         <v>274</v>
       </c>
       <c r="H128" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
@@ -5648,7 +5645,7 @@
         <v>274</v>
       </c>
       <c r="H129" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
@@ -5674,7 +5671,7 @@
         <v>274</v>
       </c>
       <c r="H130" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
@@ -5700,7 +5697,7 @@
         <v>274</v>
       </c>
       <c r="H131" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
@@ -5726,7 +5723,7 @@
         <v>274</v>
       </c>
       <c r="H132" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
@@ -5752,7 +5749,7 @@
         <v>274</v>
       </c>
       <c r="H133" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
@@ -5778,7 +5775,7 @@
         <v>51</v>
       </c>
       <c r="H134" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
@@ -5804,7 +5801,7 @@
         <v>204</v>
       </c>
       <c r="H135" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
@@ -5830,7 +5827,7 @@
         <v>295</v>
       </c>
       <c r="H136" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
@@ -5856,7 +5853,7 @@
         <v>295</v>
       </c>
       <c r="H137" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
@@ -5882,7 +5879,7 @@
         <v>295</v>
       </c>
       <c r="H138" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
@@ -5908,7 +5905,7 @@
         <v>302</v>
       </c>
       <c r="H139" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
@@ -5934,7 +5931,7 @@
         <v>263</v>
       </c>
       <c r="H140" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
@@ -5960,7 +5957,7 @@
         <v>302</v>
       </c>
       <c r="H141" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
@@ -5986,7 +5983,7 @@
         <v>302</v>
       </c>
       <c r="H142" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
@@ -6012,7 +6009,7 @@
         <v>263</v>
       </c>
       <c r="H143" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
@@ -6038,7 +6035,7 @@
         <v>302</v>
       </c>
       <c r="H144" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
@@ -6064,7 +6061,7 @@
         <v>302</v>
       </c>
       <c r="H145" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
@@ -9808,7 +9805,7 @@
         <v>204</v>
       </c>
       <c r="H289" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.3">
@@ -9834,7 +9831,7 @@
         <v>204</v>
       </c>
       <c r="H290" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.3">
@@ -9860,7 +9857,7 @@
         <v>204</v>
       </c>
       <c r="H291" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>

--- a/sofiback/public/uploads/FORMATO DE STOCK.xlsx
+++ b/sofiback/public/uploads/FORMATO DE STOCK.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adimer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FE65E2-AB07-425F-82E1-7C0FF7B96F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF379D2-8C04-4D5B-A4C6-9FF0DF98BDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D2F416F3-D4B9-4A6B-A7CA-B672ACF68326}"/>
   </bookViews>
@@ -51,6 +51,9 @@
     <t xml:space="preserve">141110                   </t>
   </si>
   <si>
+    <t xml:space="preserve">TAMBAQUI-PACU CONGELADO AL VACIO                            </t>
+  </si>
+  <si>
     <t xml:space="preserve">PESCADO                                           </t>
   </si>
   <si>
@@ -1860,10 +1863,7 @@
     <t xml:space="preserve">CAJA SACHET HAMB. 83 RES CARRITOS SOFIA 36X2X83             </t>
   </si>
   <si>
-    <t>TAMBAQUI-PACU CONGELADO AL VACIO</t>
-  </si>
-  <si>
-    <t>Codigo</t>
+    <t>codigo</t>
   </si>
   <si>
     <t>A</t>
@@ -2281,8 +2281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710009E2-DDEC-4EEF-83C0-A24B8580FFE9}">
   <dimension ref="A1:H291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B265" workbookViewId="0">
-      <selection activeCell="H146" sqref="H146:H291"/>
+    <sheetView tabSelected="1" topLeftCell="C265" workbookViewId="0">
+      <selection activeCell="H99" sqref="H99:H291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2290,7 +2290,6 @@
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="90.6640625" customWidth="1"/>
     <col min="3" max="4" width="11.44140625" style="1"/>
-    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2325,7 +2324,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>611</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -2340,7 +2339,7 @@
         <v>45293</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
         <v>613</v>
@@ -2348,10 +2347,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="6">
         <v>0</v>
@@ -2366,7 +2365,7 @@
         <v>45293</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" t="s">
         <v>613</v>
@@ -2374,10 +2373,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="6">
         <v>0</v>
@@ -2392,7 +2391,7 @@
         <v>45324</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4" t="s">
         <v>613</v>
@@ -2400,10 +2399,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="6">
         <v>5</v>
@@ -2418,7 +2417,7 @@
         <v>45324</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H5" t="s">
         <v>613</v>
@@ -2426,10 +2425,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="6">
         <v>0</v>
@@ -2444,7 +2443,7 @@
         <v>45293</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H6" t="s">
         <v>613</v>
@@ -2452,10 +2451,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="6">
         <v>0</v>
@@ -2470,7 +2469,7 @@
         <v>45293</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H7" t="s">
         <v>613</v>
@@ -2478,10 +2477,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
@@ -2496,7 +2495,7 @@
         <v>45310</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H8" t="s">
         <v>613</v>
@@ -2504,10 +2503,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
@@ -2522,7 +2521,7 @@
         <v>45324</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H9" t="s">
         <v>613</v>
@@ -2530,10 +2529,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="6">
         <v>0</v>
@@ -2548,7 +2547,7 @@
         <v>45293</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H10" t="s">
         <v>613</v>
@@ -2556,10 +2555,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="6">
         <v>0</v>
@@ -2574,7 +2573,7 @@
         <v>45303</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H11" t="s">
         <v>613</v>
@@ -2582,10 +2581,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
@@ -2600,7 +2599,7 @@
         <v>45293</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H12" t="s">
         <v>613</v>
@@ -2608,10 +2607,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="6">
         <v>0</v>
@@ -2626,7 +2625,7 @@
         <v>45324</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H13" t="s">
         <v>613</v>
@@ -2634,10 +2633,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="6">
         <v>0</v>
@@ -2652,7 +2651,7 @@
         <v>45293</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H14" t="s">
         <v>613</v>
@@ -2660,10 +2659,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="6">
         <v>0</v>
@@ -2678,7 +2677,7 @@
         <v>45320</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H15" t="s">
         <v>613</v>
@@ -2686,10 +2685,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="6">
         <v>0</v>
@@ -2704,7 +2703,7 @@
         <v>45293</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H16" t="s">
         <v>613</v>
@@ -2712,10 +2711,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="6">
         <v>0</v>
@@ -2730,7 +2729,7 @@
         <v>45320</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H17" t="s">
         <v>613</v>
@@ -2738,10 +2737,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
@@ -2756,7 +2755,7 @@
         <v>45293</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H18" t="s">
         <v>613</v>
@@ -2764,10 +2763,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" s="6">
         <v>0</v>
@@ -2782,7 +2781,7 @@
         <v>36586</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H19" t="s">
         <v>613</v>
@@ -2790,10 +2789,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="6">
         <v>0</v>
@@ -2808,7 +2807,7 @@
         <v>45293</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H20" t="s">
         <v>613</v>
@@ -2816,10 +2815,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" s="6">
         <v>5</v>
@@ -2834,7 +2833,7 @@
         <v>36586</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H21" t="s">
         <v>613</v>
@@ -2842,10 +2841,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
@@ -2860,7 +2859,7 @@
         <v>45293</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H22" t="s">
         <v>613</v>
@@ -2868,10 +2867,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" s="6">
         <v>1</v>
@@ -2886,7 +2885,7 @@
         <v>36586</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s">
         <v>613</v>
@@ -2894,10 +2893,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" s="6">
         <v>0</v>
@@ -2912,7 +2911,7 @@
         <v>45293</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s">
         <v>613</v>
@@ -2920,10 +2919,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" s="6">
         <v>0</v>
@@ -2938,7 +2937,7 @@
         <v>45293</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H25" t="s">
         <v>613</v>
@@ -2946,10 +2945,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26" s="6">
         <v>-31</v>
@@ -2964,7 +2963,7 @@
         <v>36586</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H26" t="s">
         <v>613</v>
@@ -2972,10 +2971,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" s="6">
         <v>-139</v>
@@ -2990,7 +2989,7 @@
         <v>45324</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H27" t="s">
         <v>613</v>
@@ -2998,10 +2997,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" s="6">
         <v>-38</v>
@@ -3016,7 +3015,7 @@
         <v>45320</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H28" t="s">
         <v>613</v>
@@ -3024,10 +3023,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -3042,7 +3041,7 @@
         <v>45320</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H29" t="s">
         <v>613</v>
@@ -3050,10 +3049,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C30" s="6">
         <v>-2</v>
@@ -3068,7 +3067,7 @@
         <v>36586</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H30" t="s">
         <v>613</v>
@@ -3076,10 +3075,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
@@ -3094,7 +3093,7 @@
         <v>45308</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H31" t="s">
         <v>613</v>
@@ -3102,10 +3101,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C32" s="6">
         <v>-2</v>
@@ -3120,7 +3119,7 @@
         <v>36586</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H32" t="s">
         <v>613</v>
@@ -3128,10 +3127,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C33" s="6">
         <v>-11</v>
@@ -3146,7 +3145,7 @@
         <v>36586</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H33" t="s">
         <v>613</v>
@@ -3154,10 +3153,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" s="6">
         <v>-7</v>
@@ -3172,7 +3171,7 @@
         <v>45314</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H34" t="s">
         <v>613</v>
@@ -3180,10 +3179,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C35" s="6">
         <v>0</v>
@@ -3198,7 +3197,7 @@
         <v>45323</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H35" t="s">
         <v>613</v>
@@ -3206,10 +3205,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C36" s="6">
         <v>0</v>
@@ -3224,7 +3223,7 @@
         <v>45293</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H36" t="s">
         <v>613</v>
@@ -3232,10 +3231,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C37" s="6">
         <v>-11</v>
@@ -3250,7 +3249,7 @@
         <v>45314</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H37" t="s">
         <v>613</v>
@@ -3258,10 +3257,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C38" s="6">
         <v>-101</v>
@@ -3276,7 +3275,7 @@
         <v>45323</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H38" t="s">
         <v>613</v>
@@ -3284,10 +3283,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C39" s="6">
         <v>-264</v>
@@ -3302,7 +3301,7 @@
         <v>45314</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H39" t="s">
         <v>613</v>
@@ -3310,10 +3309,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C40" s="6">
         <v>-13</v>
@@ -3328,7 +3327,7 @@
         <v>36586</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H40" t="s">
         <v>613</v>
@@ -3336,10 +3335,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C41" s="6">
         <v>-352</v>
@@ -3354,7 +3353,7 @@
         <v>45323</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H41" t="s">
         <v>613</v>
@@ -3362,10 +3361,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C42" s="6">
         <v>0</v>
@@ -3380,7 +3379,7 @@
         <v>45293</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H42" t="s">
         <v>613</v>
@@ -3388,10 +3387,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C43" s="6">
         <v>0</v>
@@ -3406,7 +3405,7 @@
         <v>45301</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H43" t="s">
         <v>613</v>
@@ -3414,10 +3413,10 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C44" s="6">
         <v>-21</v>
@@ -3432,7 +3431,7 @@
         <v>45323</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H44" t="s">
         <v>613</v>
@@ -3440,10 +3439,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C45" s="6">
         <v>-5</v>
@@ -3458,7 +3457,7 @@
         <v>45314</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H45" t="s">
         <v>613</v>
@@ -3466,10 +3465,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C46" s="6">
         <v>-57</v>
@@ -3484,7 +3483,7 @@
         <v>45323</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H46" t="s">
         <v>613</v>
@@ -3492,10 +3491,10 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C47" s="6">
         <v>2</v>
@@ -3510,7 +3509,7 @@
         <v>36586</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H47" t="s">
         <v>613</v>
@@ -3518,10 +3517,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C48" s="6">
         <v>0</v>
@@ -3536,7 +3535,7 @@
         <v>36586</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H48" t="s">
         <v>613</v>
@@ -3544,10 +3543,10 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C49" s="6">
         <v>-252</v>
@@ -3562,7 +3561,7 @@
         <v>45323</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H49" t="s">
         <v>613</v>
@@ -3570,10 +3569,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C50" s="6">
         <v>0</v>
@@ -3588,7 +3587,7 @@
         <v>45323</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H50" t="s">
         <v>613</v>
@@ -3596,10 +3595,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C51" s="6">
         <v>-166</v>
@@ -3614,7 +3613,7 @@
         <v>45314</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H51" t="s">
         <v>613</v>
@@ -3622,10 +3621,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C52" s="6">
         <v>0</v>
@@ -3640,7 +3639,7 @@
         <v>45323</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H52" t="s">
         <v>613</v>
@@ -3648,10 +3647,10 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C53" s="6">
         <v>0</v>
@@ -3666,7 +3665,7 @@
         <v>45323</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H53" t="s">
         <v>613</v>
@@ -3674,10 +3673,10 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C54" s="6">
         <v>-19</v>
@@ -3692,7 +3691,7 @@
         <v>45323</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H54" t="s">
         <v>613</v>
@@ -3700,10 +3699,10 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C55" s="6">
         <v>-115</v>
@@ -3718,7 +3717,7 @@
         <v>45323</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H55" t="s">
         <v>613</v>
@@ -3726,10 +3725,10 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C56" s="6">
         <v>-87</v>
@@ -3744,7 +3743,7 @@
         <v>45323</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H56" t="s">
         <v>613</v>
@@ -3752,10 +3751,10 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C57" s="6">
         <v>-12</v>
@@ -3770,7 +3769,7 @@
         <v>45323</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H57" t="s">
         <v>613</v>
@@ -3778,10 +3777,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C58" s="6">
         <v>-35</v>
@@ -3796,7 +3795,7 @@
         <v>45323</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H58" t="s">
         <v>613</v>
@@ -3804,10 +3803,10 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C59" s="6">
         <v>0</v>
@@ -3822,7 +3821,7 @@
         <v>36586</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H59" t="s">
         <v>613</v>
@@ -3830,10 +3829,10 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C60" s="6">
         <v>0</v>
@@ -3848,7 +3847,7 @@
         <v>36586</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H60" t="s">
         <v>613</v>
@@ -3856,10 +3855,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C61" s="6">
         <v>-1</v>
@@ -3874,7 +3873,7 @@
         <v>45320</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H61" t="s">
         <v>613</v>
@@ -3882,10 +3881,10 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C62" s="6">
         <v>-8</v>
@@ -3900,7 +3899,7 @@
         <v>45308</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H62" t="s">
         <v>613</v>
@@ -3908,10 +3907,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C63" s="6">
         <v>1</v>
@@ -3926,7 +3925,7 @@
         <v>36586</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H63" t="s">
         <v>613</v>
@@ -3934,10 +3933,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C64" s="6">
         <v>-23</v>
@@ -3952,7 +3951,7 @@
         <v>45323</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H64" t="s">
         <v>613</v>
@@ -3960,10 +3959,10 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C65" s="6">
         <v>-5</v>
@@ -3978,7 +3977,7 @@
         <v>45323</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H65" t="s">
         <v>613</v>
@@ -3986,10 +3985,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C66" s="6">
         <v>0</v>
@@ -4004,7 +4003,7 @@
         <v>36586</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H66" t="s">
         <v>613</v>
@@ -4012,10 +4011,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C67" s="6">
         <v>0</v>
@@ -4030,7 +4029,7 @@
         <v>45323</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H67" t="s">
         <v>613</v>
@@ -4038,10 +4037,10 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C68" s="6">
         <v>-7</v>
@@ -4056,7 +4055,7 @@
         <v>45323</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H68" t="s">
         <v>613</v>
@@ -4064,10 +4063,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C69" s="6">
         <v>-135</v>
@@ -4082,7 +4081,7 @@
         <v>45323</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H69" t="s">
         <v>613</v>
@@ -4090,10 +4089,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C70" s="6">
         <v>-20</v>
@@ -4108,7 +4107,7 @@
         <v>45323</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H70" t="s">
         <v>613</v>
@@ -4116,10 +4115,10 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C71" s="6">
         <v>-7</v>
@@ -4134,7 +4133,7 @@
         <v>45323</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H71" t="s">
         <v>613</v>
@@ -4142,10 +4141,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C72" s="6">
         <v>-86</v>
@@ -4160,7 +4159,7 @@
         <v>45323</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H72" t="s">
         <v>613</v>
@@ -4168,10 +4167,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C73" s="6">
         <v>0</v>
@@ -4186,7 +4185,7 @@
         <v>45323</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H73" t="s">
         <v>613</v>
@@ -4194,10 +4193,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C74" s="6">
         <v>0</v>
@@ -4212,7 +4211,7 @@
         <v>45320</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H74" t="s">
         <v>613</v>
@@ -4220,10 +4219,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C75" s="6">
         <v>0</v>
@@ -4238,7 +4237,7 @@
         <v>45326</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H75" t="s">
         <v>613</v>
@@ -4246,10 +4245,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C76" s="6">
         <v>0</v>
@@ -4264,7 +4263,7 @@
         <v>45314</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H76" t="s">
         <v>613</v>
@@ -4272,10 +4271,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C77" s="6">
         <v>0</v>
@@ -4290,7 +4289,7 @@
         <v>45326</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H77" t="s">
         <v>613</v>
@@ -4298,10 +4297,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C78" s="6">
         <v>-10</v>
@@ -4316,7 +4315,7 @@
         <v>36586</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H78" t="s">
         <v>613</v>
@@ -4324,10 +4323,10 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C79" s="6">
         <v>0</v>
@@ -4342,7 +4341,7 @@
         <v>45326</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H79" t="s">
         <v>613</v>
@@ -4350,10 +4349,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C80" s="6">
         <v>0</v>
@@ -4368,7 +4367,7 @@
         <v>36586</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H80" t="s">
         <v>613</v>
@@ -4376,10 +4375,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C81" s="6">
         <v>0</v>
@@ -4394,7 +4393,7 @@
         <v>36586</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H81" t="s">
         <v>613</v>
@@ -4402,10 +4401,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C82" s="6">
         <v>-10</v>
@@ -4420,7 +4419,7 @@
         <v>36586</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H82" t="s">
         <v>613</v>
@@ -4428,10 +4427,10 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C83" s="6">
         <v>0</v>
@@ -4446,7 +4445,7 @@
         <v>36586</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H83" t="s">
         <v>613</v>
@@ -4454,10 +4453,10 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C84" s="6">
         <v>0</v>
@@ -4472,7 +4471,7 @@
         <v>45314</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H84" t="s">
         <v>613</v>
@@ -4480,10 +4479,10 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C85" s="6">
         <v>0</v>
@@ -4498,7 +4497,7 @@
         <v>36586</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H85" t="s">
         <v>613</v>
@@ -4506,10 +4505,10 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C86" s="6">
         <v>0</v>
@@ -4524,7 +4523,7 @@
         <v>45323</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H86" t="s">
         <v>613</v>
@@ -4532,10 +4531,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C87" s="6">
         <v>0</v>
@@ -4550,7 +4549,7 @@
         <v>45323</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H87" t="s">
         <v>613</v>
@@ -4558,10 +4557,10 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C88" s="6">
         <v>0</v>
@@ -4576,7 +4575,7 @@
         <v>36586</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H88" t="s">
         <v>613</v>
@@ -4584,10 +4583,10 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C89" s="6">
         <v>0</v>
@@ -4602,7 +4601,7 @@
         <v>45323</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H89" t="s">
         <v>613</v>
@@ -4610,10 +4609,10 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C90" s="6">
         <v>0</v>
@@ -4628,7 +4627,7 @@
         <v>45320</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H90" t="s">
         <v>613</v>
@@ -4636,10 +4635,10 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C91" s="6">
         <v>0</v>
@@ -4654,7 +4653,7 @@
         <v>36586</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H91" t="s">
         <v>613</v>
@@ -4662,10 +4661,10 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C92" s="6">
         <v>0</v>
@@ -4680,7 +4679,7 @@
         <v>45323</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H92" t="s">
         <v>613</v>
@@ -4688,10 +4687,10 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C93" s="6">
         <v>0</v>
@@ -4706,7 +4705,7 @@
         <v>36586</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H93" t="s">
         <v>613</v>
@@ -4714,10 +4713,10 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C94" s="6">
         <v>0</v>
@@ -4732,7 +4731,7 @@
         <v>36586</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H94" t="s">
         <v>613</v>
@@ -4740,10 +4739,10 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C95" s="6">
         <v>0</v>
@@ -4758,7 +4757,7 @@
         <v>45323</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H95" t="s">
         <v>613</v>
@@ -4766,10 +4765,10 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C96" s="6">
         <v>0</v>
@@ -4784,7 +4783,7 @@
         <v>45314</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H96" t="s">
         <v>613</v>
@@ -4792,10 +4791,10 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C97" s="6">
         <v>0</v>
@@ -4810,7 +4809,7 @@
         <v>45323</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H97" t="s">
         <v>613</v>
@@ -4818,10 +4817,10 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C98" s="6">
         <v>0</v>
@@ -4836,7 +4835,7 @@
         <v>45323</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H98" t="s">
         <v>613</v>
@@ -4844,10 +4843,10 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C99" s="6">
         <v>0</v>
@@ -4862,18 +4861,18 @@
         <v>36586</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H99" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C100" s="6">
         <v>0</v>
@@ -4888,18 +4887,18 @@
         <v>45301</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H100" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C101" s="6">
         <v>0</v>
@@ -4914,18 +4913,18 @@
         <v>45314</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H101" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C102" s="6">
         <v>0</v>
@@ -4940,18 +4939,18 @@
         <v>45323</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H102" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C103" s="6">
         <v>0</v>
@@ -4966,18 +4965,18 @@
         <v>36586</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H103" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C104" s="6">
         <v>0</v>
@@ -4992,18 +4991,18 @@
         <v>45308</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H104" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C105" s="6">
         <v>0</v>
@@ -5018,18 +5017,18 @@
         <v>36586</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H105" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C106" s="6">
         <v>0</v>
@@ -5044,18 +5043,18 @@
         <v>36586</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H106" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C107" s="6">
         <v>0</v>
@@ -5070,18 +5069,18 @@
         <v>45314</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H107" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C108" s="6">
         <v>0</v>
@@ -5096,18 +5095,18 @@
         <v>45323</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H108" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C109" s="6">
         <v>0</v>
@@ -5122,18 +5121,18 @@
         <v>45323</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H109" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C110" s="6">
         <v>0</v>
@@ -5148,18 +5147,18 @@
         <v>45323</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H110" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C111" s="6">
         <v>0</v>
@@ -5174,18 +5173,18 @@
         <v>45323</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H111" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C112" s="6">
         <v>0</v>
@@ -5200,18 +5199,18 @@
         <v>45323</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H112" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C113" s="6">
         <v>0</v>
@@ -5226,18 +5225,18 @@
         <v>45323</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H113" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C114" s="6">
         <v>0</v>
@@ -5252,18 +5251,18 @@
         <v>45323</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H114" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C115" s="6">
         <v>0</v>
@@ -5278,18 +5277,18 @@
         <v>45323</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H115" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C116" s="6">
         <v>0</v>
@@ -5304,18 +5303,18 @@
         <v>36586</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H116" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C117" s="6">
         <v>0</v>
@@ -5330,18 +5329,18 @@
         <v>45323</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H117" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C118" s="6">
         <v>0</v>
@@ -5356,18 +5355,18 @@
         <v>36586</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H118" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C119" s="6">
         <v>0</v>
@@ -5382,18 +5381,18 @@
         <v>45323</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H119" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C120" s="6">
         <v>0</v>
@@ -5408,18 +5407,18 @@
         <v>45323</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H120" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C121" s="6">
         <v>0</v>
@@ -5434,18 +5433,18 @@
         <v>36586</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H121" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C122" s="6">
         <v>0</v>
@@ -5460,18 +5459,18 @@
         <v>45323</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H122" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C123" s="6">
         <v>0</v>
@@ -5486,18 +5485,18 @@
         <v>45323</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H123" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C124" s="6">
         <v>0</v>
@@ -5512,18 +5511,18 @@
         <v>45323</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H124" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C125" s="6">
         <v>0</v>
@@ -5538,18 +5537,18 @@
         <v>45323</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H125" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C126" s="6">
         <v>0</v>
@@ -5564,18 +5563,18 @@
         <v>36586</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H126" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C127" s="6">
         <v>0</v>
@@ -5590,18 +5589,18 @@
         <v>36586</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H127" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C128" s="6">
         <v>0</v>
@@ -5616,18 +5615,18 @@
         <v>45323</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H128" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C129" s="6">
         <v>0</v>
@@ -5642,18 +5641,18 @@
         <v>45314</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H129" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C130" s="6">
         <v>0</v>
@@ -5668,18 +5667,18 @@
         <v>45323</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H130" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C131" s="6">
         <v>0</v>
@@ -5694,18 +5693,18 @@
         <v>45323</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H131" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C132" s="6">
         <v>0</v>
@@ -5720,18 +5719,18 @@
         <v>45323</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H132" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C133" s="6">
         <v>0</v>
@@ -5746,18 +5745,18 @@
         <v>45323</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H133" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C134" s="6">
         <v>0</v>
@@ -5772,18 +5771,18 @@
         <v>45314</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H134" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C135" s="6">
         <v>0</v>
@@ -5798,18 +5797,18 @@
         <v>45293</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H135" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C136" s="6">
         <v>0</v>
@@ -5824,18 +5823,18 @@
         <v>36586</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H136" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C137" s="6">
         <v>0</v>
@@ -5850,18 +5849,18 @@
         <v>45314</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H137" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C138" s="6">
         <v>0</v>
@@ -5876,18 +5875,18 @@
         <v>45293</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H138" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C139" s="6">
         <v>0</v>
@@ -5902,18 +5901,18 @@
         <v>45293</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H139" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C140" s="6">
         <v>0</v>
@@ -5928,18 +5927,18 @@
         <v>45320</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H140" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C141" s="6">
         <v>0</v>
@@ -5954,18 +5953,18 @@
         <v>45320</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H141" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C142" s="6">
         <v>0</v>
@@ -5980,18 +5979,18 @@
         <v>45309</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H142" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C143" s="6">
         <v>0</v>
@@ -6006,18 +6005,18 @@
         <v>45293</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H143" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C144" s="6">
         <v>0</v>
@@ -6032,18 +6031,18 @@
         <v>45293</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H144" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C145" s="6">
         <v>0</v>
@@ -6058,18 +6057,18 @@
         <v>45320</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H145" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C146" s="6">
         <v>0</v>
@@ -6084,7 +6083,7 @@
         <v>45301</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H146" t="s">
         <v>614</v>
@@ -6092,10 +6091,10 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C147" s="6">
         <v>0</v>
@@ -6110,7 +6109,7 @@
         <v>45293</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H147" t="s">
         <v>614</v>
@@ -6118,10 +6117,10 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C148" s="6">
         <v>4</v>
@@ -6136,7 +6135,7 @@
         <v>36586</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H148" t="s">
         <v>614</v>
@@ -6144,10 +6143,10 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C149" s="6">
         <v>0</v>
@@ -6162,7 +6161,7 @@
         <v>45293</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H149" t="s">
         <v>614</v>
@@ -6170,10 +6169,10 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C150" s="6">
         <v>0</v>
@@ -6188,7 +6187,7 @@
         <v>45293</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H150" t="s">
         <v>614</v>
@@ -6196,10 +6195,10 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C151" s="6">
         <v>0</v>
@@ -6214,7 +6213,7 @@
         <v>36586</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H151" t="s">
         <v>614</v>
@@ -6222,10 +6221,10 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C152" s="6">
         <v>0</v>
@@ -6240,7 +6239,7 @@
         <v>45293</v>
       </c>
       <c r="G152" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H152" t="s">
         <v>614</v>
@@ -6248,10 +6247,10 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C153" s="6">
         <v>6</v>
@@ -6266,7 +6265,7 @@
         <v>45320</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H153" t="s">
         <v>614</v>
@@ -6274,10 +6273,10 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C154" s="6">
         <v>0</v>
@@ -6292,7 +6291,7 @@
         <v>45301</v>
       </c>
       <c r="G154" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H154" t="s">
         <v>614</v>
@@ -6300,10 +6299,10 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C155" s="6">
         <v>0</v>
@@ -6318,7 +6317,7 @@
         <v>45293</v>
       </c>
       <c r="G155" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H155" t="s">
         <v>614</v>
@@ -6326,10 +6325,10 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C156" s="6">
         <v>0</v>
@@ -6344,7 +6343,7 @@
         <v>45309</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H156" t="s">
         <v>614</v>
@@ -6352,10 +6351,10 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C157" s="6">
         <v>0</v>
@@ -6370,7 +6369,7 @@
         <v>45320</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H157" t="s">
         <v>614</v>
@@ -6378,10 +6377,10 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C158" s="6">
         <v>0</v>
@@ -6396,7 +6395,7 @@
         <v>45293</v>
       </c>
       <c r="G158" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H158" t="s">
         <v>614</v>
@@ -6404,10 +6403,10 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C159" s="6">
         <v>0</v>
@@ -6422,7 +6421,7 @@
         <v>45293</v>
       </c>
       <c r="G159" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H159" t="s">
         <v>614</v>
@@ -6430,10 +6429,10 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C160" s="6">
         <v>1</v>
@@ -6448,7 +6447,7 @@
         <v>45320</v>
       </c>
       <c r="G160" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H160" t="s">
         <v>614</v>
@@ -6456,10 +6455,10 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C161" s="6">
         <v>0</v>
@@ -6474,7 +6473,7 @@
         <v>36586</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H161" t="s">
         <v>614</v>
@@ -6482,10 +6481,10 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C162" s="6">
         <v>14</v>
@@ -6500,7 +6499,7 @@
         <v>36586</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H162" t="s">
         <v>614</v>
@@ -6508,10 +6507,10 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C163" s="6">
         <v>0</v>
@@ -6526,7 +6525,7 @@
         <v>36586</v>
       </c>
       <c r="G163" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H163" t="s">
         <v>614</v>
@@ -6534,10 +6533,10 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C164" s="6">
         <v>0</v>
@@ -6552,7 +6551,7 @@
         <v>45320</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H164" t="s">
         <v>614</v>
@@ -6560,10 +6559,10 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C165" s="6">
         <v>0</v>
@@ -6578,7 +6577,7 @@
         <v>45293</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H165" t="s">
         <v>614</v>
@@ -6586,10 +6585,10 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C166" s="6">
         <v>0</v>
@@ -6604,7 +6603,7 @@
         <v>45293</v>
       </c>
       <c r="G166" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H166" t="s">
         <v>614</v>
@@ -6612,10 +6611,10 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C167" s="6">
         <v>0</v>
@@ -6630,7 +6629,7 @@
         <v>45309</v>
       </c>
       <c r="G167" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H167" t="s">
         <v>614</v>
@@ -6638,10 +6637,10 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C168" s="6">
         <v>0</v>
@@ -6656,7 +6655,7 @@
         <v>45293</v>
       </c>
       <c r="G168" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H168" t="s">
         <v>614</v>
@@ -6664,10 +6663,10 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C169" s="6">
         <v>0</v>
@@ -6682,7 +6681,7 @@
         <v>45309</v>
       </c>
       <c r="G169" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H169" t="s">
         <v>614</v>
@@ -6690,10 +6689,10 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C170" s="6">
         <v>0</v>
@@ -6708,7 +6707,7 @@
         <v>45293</v>
       </c>
       <c r="G170" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H170" t="s">
         <v>614</v>
@@ -6716,10 +6715,10 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C171" s="6">
         <v>0</v>
@@ -6734,7 +6733,7 @@
         <v>45293</v>
       </c>
       <c r="G171" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H171" t="s">
         <v>614</v>
@@ -6742,10 +6741,10 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C172" s="6">
         <v>6</v>
@@ -6760,7 +6759,7 @@
         <v>36586</v>
       </c>
       <c r="G172" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H172" t="s">
         <v>614</v>
@@ -6768,10 +6767,10 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C173" s="6">
         <v>0</v>
@@ -6786,7 +6785,7 @@
         <v>45320</v>
       </c>
       <c r="G173" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H173" t="s">
         <v>614</v>
@@ -6794,10 +6793,10 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C174" s="6">
         <v>0</v>
@@ -6812,7 +6811,7 @@
         <v>45293</v>
       </c>
       <c r="G174" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H174" t="s">
         <v>614</v>
@@ -6820,10 +6819,10 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C175" s="6">
         <v>0</v>
@@ -6838,7 +6837,7 @@
         <v>45293</v>
       </c>
       <c r="G175" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H175" t="s">
         <v>614</v>
@@ -6846,10 +6845,10 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C176" s="6">
         <v>0</v>
@@ -6864,7 +6863,7 @@
         <v>36586</v>
       </c>
       <c r="G176" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H176" t="s">
         <v>614</v>
@@ -6872,10 +6871,10 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C177" s="6">
         <v>0</v>
@@ -6890,7 +6889,7 @@
         <v>36586</v>
       </c>
       <c r="G177" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H177" t="s">
         <v>614</v>
@@ -6898,10 +6897,10 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C178" s="6">
         <v>2</v>
@@ -6916,7 +6915,7 @@
         <v>36586</v>
       </c>
       <c r="G178" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H178" t="s">
         <v>614</v>
@@ -6924,10 +6923,10 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C179" s="6">
         <v>0</v>
@@ -6942,7 +6941,7 @@
         <v>36586</v>
       </c>
       <c r="G179" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H179" t="s">
         <v>614</v>
@@ -6950,10 +6949,10 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C180" s="6">
         <v>0</v>
@@ -6968,7 +6967,7 @@
         <v>45293</v>
       </c>
       <c r="G180" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H180" t="s">
         <v>614</v>
@@ -6976,10 +6975,10 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C181" s="6">
         <v>6</v>
@@ -6994,7 +6993,7 @@
         <v>36586</v>
       </c>
       <c r="G181" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H181" t="s">
         <v>614</v>
@@ -7002,10 +7001,10 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C182" s="6">
         <v>0</v>
@@ -7020,7 +7019,7 @@
         <v>45293</v>
       </c>
       <c r="G182" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H182" t="s">
         <v>614</v>
@@ -7028,10 +7027,10 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C183" s="6">
         <v>0</v>
@@ -7046,7 +7045,7 @@
         <v>45293</v>
       </c>
       <c r="G183" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H183" t="s">
         <v>614</v>
@@ -7054,10 +7053,10 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C184" s="6">
         <v>0</v>
@@ -7072,7 +7071,7 @@
         <v>45293</v>
       </c>
       <c r="G184" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H184" t="s">
         <v>614</v>
@@ -7080,10 +7079,10 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C185" s="6">
         <v>0</v>
@@ -7098,7 +7097,7 @@
         <v>45320</v>
       </c>
       <c r="G185" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H185" t="s">
         <v>614</v>
@@ -7106,10 +7105,10 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C186" s="6">
         <v>0</v>
@@ -7124,7 +7123,7 @@
         <v>45293</v>
       </c>
       <c r="G186" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H186" t="s">
         <v>614</v>
@@ -7132,10 +7131,10 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C187" s="6">
         <v>0</v>
@@ -7150,7 +7149,7 @@
         <v>36586</v>
       </c>
       <c r="G187" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H187" t="s">
         <v>614</v>
@@ -7158,10 +7157,10 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C188" s="6">
         <v>0</v>
@@ -7176,7 +7175,7 @@
         <v>45320</v>
       </c>
       <c r="G188" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H188" t="s">
         <v>614</v>
@@ -7184,10 +7183,10 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C189" s="6">
         <v>0</v>
@@ -7202,7 +7201,7 @@
         <v>45293</v>
       </c>
       <c r="G189" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H189" t="s">
         <v>614</v>
@@ -7210,10 +7209,10 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C190" s="6">
         <v>0</v>
@@ -7228,7 +7227,7 @@
         <v>45293</v>
       </c>
       <c r="G190" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H190" t="s">
         <v>614</v>
@@ -7236,10 +7235,10 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C191" s="6">
         <v>0</v>
@@ -7254,7 +7253,7 @@
         <v>45293</v>
       </c>
       <c r="G191" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H191" t="s">
         <v>614</v>
@@ -7262,10 +7261,10 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C192" s="6">
         <v>0</v>
@@ -7280,7 +7279,7 @@
         <v>45320</v>
       </c>
       <c r="G192" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H192" t="s">
         <v>614</v>
@@ -7288,10 +7287,10 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C193" s="6">
         <v>5</v>
@@ -7306,7 +7305,7 @@
         <v>45320</v>
       </c>
       <c r="G193" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H193" t="s">
         <v>614</v>
@@ -7314,10 +7313,10 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C194" s="6">
         <v>0</v>
@@ -7332,7 +7331,7 @@
         <v>36586</v>
       </c>
       <c r="G194" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H194" t="s">
         <v>614</v>
@@ -7340,10 +7339,10 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C195" s="6">
         <v>0</v>
@@ -7358,7 +7357,7 @@
         <v>45293</v>
       </c>
       <c r="G195" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H195" t="s">
         <v>614</v>
@@ -7366,10 +7365,10 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C196" s="6">
         <v>0</v>
@@ -7384,7 +7383,7 @@
         <v>45293</v>
       </c>
       <c r="G196" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H196" t="s">
         <v>614</v>
@@ -7392,10 +7391,10 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C197" s="6">
         <v>0</v>
@@ -7410,7 +7409,7 @@
         <v>36586</v>
       </c>
       <c r="G197" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H197" t="s">
         <v>614</v>
@@ -7418,10 +7417,10 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C198" s="6">
         <v>0</v>
@@ -7436,7 +7435,7 @@
         <v>45293</v>
       </c>
       <c r="G198" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H198" t="s">
         <v>614</v>
@@ -7444,10 +7443,10 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C199" s="6">
         <v>0</v>
@@ -7462,7 +7461,7 @@
         <v>45293</v>
       </c>
       <c r="G199" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H199" t="s">
         <v>614</v>
@@ -7470,10 +7469,10 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C200" s="6">
         <v>0</v>
@@ -7488,7 +7487,7 @@
         <v>45293</v>
       </c>
       <c r="G200" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H200" t="s">
         <v>614</v>
@@ -7496,10 +7495,10 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C201" s="6">
         <v>0</v>
@@ -7514,7 +7513,7 @@
         <v>45293</v>
       </c>
       <c r="G201" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H201" t="s">
         <v>614</v>
@@ -7522,10 +7521,10 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C202" s="6">
         <v>0</v>
@@ -7540,7 +7539,7 @@
         <v>45310</v>
       </c>
       <c r="G202" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H202" t="s">
         <v>614</v>
@@ -7548,10 +7547,10 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C203" s="6">
         <v>0</v>
@@ -7566,7 +7565,7 @@
         <v>45310</v>
       </c>
       <c r="G203" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H203" t="s">
         <v>614</v>
@@ -7574,10 +7573,10 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C204" s="6">
         <v>0</v>
@@ -7592,7 +7591,7 @@
         <v>45310</v>
       </c>
       <c r="G204" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H204" t="s">
         <v>614</v>
@@ -7600,10 +7599,10 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C205" s="6">
         <v>0</v>
@@ -7618,7 +7617,7 @@
         <v>45293</v>
       </c>
       <c r="G205" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H205" t="s">
         <v>614</v>
@@ -7626,10 +7625,10 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C206" s="6">
         <v>0</v>
@@ -7644,7 +7643,7 @@
         <v>36586</v>
       </c>
       <c r="G206" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H206" t="s">
         <v>614</v>
@@ -7652,10 +7651,10 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C207" s="6">
         <v>0</v>
@@ -7670,7 +7669,7 @@
         <v>45293</v>
       </c>
       <c r="G207" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H207" t="s">
         <v>614</v>
@@ -7678,10 +7677,10 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C208" s="6">
         <v>0</v>
@@ -7696,7 +7695,7 @@
         <v>45293</v>
       </c>
       <c r="G208" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H208" t="s">
         <v>614</v>
@@ -7704,10 +7703,10 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C209" s="6">
         <v>0</v>
@@ -7722,7 +7721,7 @@
         <v>36586</v>
       </c>
       <c r="G209" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H209" t="s">
         <v>614</v>
@@ -7730,10 +7729,10 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C210" s="6">
         <v>0</v>
@@ -7748,7 +7747,7 @@
         <v>45295</v>
       </c>
       <c r="G210" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H210" t="s">
         <v>614</v>
@@ -7756,10 +7755,10 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C211" s="6">
         <v>-321</v>
@@ -7774,7 +7773,7 @@
         <v>45327</v>
       </c>
       <c r="G211" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H211" t="s">
         <v>614</v>
@@ -7782,10 +7781,10 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C212" s="6">
         <v>0</v>
@@ -7800,7 +7799,7 @@
         <v>45320</v>
       </c>
       <c r="G212" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H212" t="s">
         <v>614</v>
@@ -7808,10 +7807,10 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C213" s="6">
         <v>-556</v>
@@ -7826,7 +7825,7 @@
         <v>45326</v>
       </c>
       <c r="G213" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H213" t="s">
         <v>614</v>
@@ -7834,10 +7833,10 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C214" s="6">
         <v>-2487</v>
@@ -7852,7 +7851,7 @@
         <v>36586</v>
       </c>
       <c r="G214" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H214" t="s">
         <v>614</v>
@@ -7860,10 +7859,10 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C215" s="6">
         <v>-14108</v>
@@ -7878,7 +7877,7 @@
         <v>36586</v>
       </c>
       <c r="G215" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H215" t="s">
         <v>614</v>
@@ -7886,10 +7885,10 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C216" s="6">
         <v>-18223</v>
@@ -7904,7 +7903,7 @@
         <v>36586</v>
       </c>
       <c r="G216" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H216" t="s">
         <v>614</v>
@@ -7912,10 +7911,10 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C217" s="6">
         <v>-6341</v>
@@ -7930,7 +7929,7 @@
         <v>45326</v>
       </c>
       <c r="G217" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H217" t="s">
         <v>614</v>
@@ -7938,10 +7937,10 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C218" s="6">
         <v>-1343</v>
@@ -7956,7 +7955,7 @@
         <v>45326</v>
       </c>
       <c r="G218" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H218" t="s">
         <v>614</v>
@@ -7964,10 +7963,10 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C219" s="6">
         <v>0</v>
@@ -7982,7 +7981,7 @@
         <v>45322</v>
       </c>
       <c r="G219" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H219" t="s">
         <v>614</v>
@@ -7990,10 +7989,10 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C220" s="6">
         <v>-112</v>
@@ -8008,7 +8007,7 @@
         <v>36586</v>
       </c>
       <c r="G220" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H220" t="s">
         <v>614</v>
@@ -8016,10 +8015,10 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C221" s="6">
         <v>-154</v>
@@ -8034,7 +8033,7 @@
         <v>36586</v>
       </c>
       <c r="G221" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H221" t="s">
         <v>614</v>
@@ -8042,10 +8041,10 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C222" s="6">
         <v>-11</v>
@@ -8060,7 +8059,7 @@
         <v>45321</v>
       </c>
       <c r="G222" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H222" t="s">
         <v>614</v>
@@ -8068,10 +8067,10 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C223" s="6">
         <v>-64</v>
@@ -8086,7 +8085,7 @@
         <v>36586</v>
       </c>
       <c r="G223" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H223" t="s">
         <v>614</v>
@@ -8094,10 +8093,10 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C224" s="6">
         <v>0</v>
@@ -8112,7 +8111,7 @@
         <v>45324</v>
       </c>
       <c r="G224" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H224" t="s">
         <v>614</v>
@@ -8120,10 +8119,10 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C225" s="6">
         <v>-5863</v>
@@ -8138,7 +8137,7 @@
         <v>45324</v>
       </c>
       <c r="G225" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H225" t="s">
         <v>614</v>
@@ -8146,10 +8145,10 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C226" s="6">
         <v>-3533</v>
@@ -8164,7 +8163,7 @@
         <v>45324</v>
       </c>
       <c r="G226" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H226" t="s">
         <v>614</v>
@@ -8172,10 +8171,10 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C227" s="6">
         <v>-1212</v>
@@ -8190,7 +8189,7 @@
         <v>36586</v>
       </c>
       <c r="G227" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H227" t="s">
         <v>614</v>
@@ -8198,10 +8197,10 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C228" s="6">
         <v>-1272</v>
@@ -8216,7 +8215,7 @@
         <v>36586</v>
       </c>
       <c r="G228" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H228" t="s">
         <v>614</v>
@@ -8224,10 +8223,10 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C229" s="6">
         <v>-7351</v>
@@ -8242,7 +8241,7 @@
         <v>36586</v>
       </c>
       <c r="G229" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H229" t="s">
         <v>614</v>
@@ -8250,10 +8249,10 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C230" s="6">
         <v>-928</v>
@@ -8268,7 +8267,7 @@
         <v>45321</v>
       </c>
       <c r="G230" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H230" t="s">
         <v>614</v>
@@ -8276,10 +8275,10 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C231" s="6">
         <v>-343</v>
@@ -8294,7 +8293,7 @@
         <v>45321</v>
       </c>
       <c r="G231" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H231" t="s">
         <v>614</v>
@@ -8302,10 +8301,10 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C232" s="6">
         <v>0</v>
@@ -8320,7 +8319,7 @@
         <v>45325</v>
       </c>
       <c r="G232" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H232" t="s">
         <v>614</v>
@@ -8328,10 +8327,10 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C233" s="6">
         <v>0</v>
@@ -8346,7 +8345,7 @@
         <v>45321</v>
       </c>
       <c r="G233" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H233" t="s">
         <v>614</v>
@@ -8354,10 +8353,10 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C234" s="6">
         <v>0</v>
@@ -8372,7 +8371,7 @@
         <v>45321</v>
       </c>
       <c r="G234" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H234" t="s">
         <v>614</v>
@@ -8380,10 +8379,10 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C235" s="6">
         <v>0</v>
@@ -8398,7 +8397,7 @@
         <v>45321</v>
       </c>
       <c r="G235" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H235" t="s">
         <v>614</v>
@@ -8406,10 +8405,10 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C236" s="6">
         <v>0</v>
@@ -8424,7 +8423,7 @@
         <v>36586</v>
       </c>
       <c r="G236" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H236" t="s">
         <v>614</v>
@@ -8432,10 +8431,10 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C237" s="6">
         <v>-582</v>
@@ -8450,7 +8449,7 @@
         <v>45321</v>
       </c>
       <c r="G237" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H237" t="s">
         <v>614</v>
@@ -8458,10 +8457,10 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C238" s="6">
         <v>-18</v>
@@ -8476,7 +8475,7 @@
         <v>45321</v>
       </c>
       <c r="G238" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H238" t="s">
         <v>614</v>
@@ -8484,10 +8483,10 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C239" s="6">
         <v>0</v>
@@ -8502,7 +8501,7 @@
         <v>36586</v>
       </c>
       <c r="G239" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H239" t="s">
         <v>614</v>
@@ -8510,10 +8509,10 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C240" s="6">
         <v>0</v>
@@ -8528,7 +8527,7 @@
         <v>45314</v>
       </c>
       <c r="G240" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H240" t="s">
         <v>614</v>
@@ -8536,10 +8535,10 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C241" s="6">
         <v>8</v>
@@ -8554,7 +8553,7 @@
         <v>45326</v>
       </c>
       <c r="G241" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H241" t="s">
         <v>614</v>
@@ -8562,10 +8561,10 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C242" s="6">
         <v>0</v>
@@ -8580,7 +8579,7 @@
         <v>45326</v>
       </c>
       <c r="G242" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H242" t="s">
         <v>614</v>
@@ -8588,10 +8587,10 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C243" s="6">
         <v>0</v>
@@ -8606,7 +8605,7 @@
         <v>45295</v>
       </c>
       <c r="G243" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H243" t="s">
         <v>614</v>
@@ -8614,10 +8613,10 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C244" s="6">
         <v>-40</v>
@@ -8632,7 +8631,7 @@
         <v>45324</v>
       </c>
       <c r="G244" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H244" t="s">
         <v>614</v>
@@ -8640,10 +8639,10 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C245" s="6">
         <v>-25</v>
@@ -8658,7 +8657,7 @@
         <v>45323</v>
       </c>
       <c r="G245" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H245" t="s">
         <v>614</v>
@@ -8666,10 +8665,10 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C246" s="6">
         <v>0</v>
@@ -8684,7 +8683,7 @@
         <v>45308</v>
       </c>
       <c r="G246" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H246" t="s">
         <v>614</v>
@@ -8692,10 +8691,10 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C247" s="6">
         <v>-14</v>
@@ -8710,7 +8709,7 @@
         <v>45320</v>
       </c>
       <c r="G247" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H247" t="s">
         <v>614</v>
@@ -8718,10 +8717,10 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C248" s="6">
         <v>-16</v>
@@ -8736,7 +8735,7 @@
         <v>45323</v>
       </c>
       <c r="G248" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H248" t="s">
         <v>614</v>
@@ -8744,10 +8743,10 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C249" s="6">
         <v>0</v>
@@ -8762,7 +8761,7 @@
         <v>45323</v>
       </c>
       <c r="G249" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H249" t="s">
         <v>614</v>
@@ -8770,10 +8769,10 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C250" s="6">
         <v>0</v>
@@ -8788,7 +8787,7 @@
         <v>45308</v>
       </c>
       <c r="G250" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H250" t="s">
         <v>614</v>
@@ -8796,10 +8795,10 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C251" s="6">
         <v>0</v>
@@ -8814,7 +8813,7 @@
         <v>45326</v>
       </c>
       <c r="G251" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H251" t="s">
         <v>614</v>
@@ -8822,10 +8821,10 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C252" s="6">
         <v>11</v>
@@ -8840,7 +8839,7 @@
         <v>45326</v>
       </c>
       <c r="G252" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H252" t="s">
         <v>614</v>
@@ -8848,10 +8847,10 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C253" s="6">
         <v>0</v>
@@ -8866,7 +8865,7 @@
         <v>36586</v>
       </c>
       <c r="G253" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H253" t="s">
         <v>614</v>
@@ -8874,10 +8873,10 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C254" s="6">
         <v>0</v>
@@ -8892,7 +8891,7 @@
         <v>45323</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H254" t="s">
         <v>614</v>
@@ -8900,10 +8899,10 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C255" s="6">
         <v>0</v>
@@ -8918,7 +8917,7 @@
         <v>45308</v>
       </c>
       <c r="G255" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H255" t="s">
         <v>614</v>
@@ -8926,10 +8925,10 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C256" s="6">
         <v>0</v>
@@ -8944,7 +8943,7 @@
         <v>45308</v>
       </c>
       <c r="G256" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H256" t="s">
         <v>614</v>
@@ -8952,10 +8951,10 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C257" s="6">
         <v>0</v>
@@ -8970,7 +8969,7 @@
         <v>45314</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H257" t="s">
         <v>614</v>
@@ -8978,10 +8977,10 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C258" s="6">
         <v>0</v>
@@ -8996,7 +8995,7 @@
         <v>36586</v>
       </c>
       <c r="G258" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H258" t="s">
         <v>614</v>
@@ -9004,10 +9003,10 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C259" s="6">
         <v>0</v>
@@ -9022,7 +9021,7 @@
         <v>45320</v>
       </c>
       <c r="G259" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H259" t="s">
         <v>614</v>
@@ -9030,10 +9029,10 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="4" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C260" s="6">
         <v>0</v>
@@ -9048,7 +9047,7 @@
         <v>45323</v>
       </c>
       <c r="G260" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H260" t="s">
         <v>614</v>
@@ -9056,10 +9055,10 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C261" s="6">
         <v>-46</v>
@@ -9074,7 +9073,7 @@
         <v>45314</v>
       </c>
       <c r="G261" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H261" t="s">
         <v>614</v>
@@ -9082,10 +9081,10 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C262" s="6">
         <v>-51</v>
@@ -9100,7 +9099,7 @@
         <v>45314</v>
       </c>
       <c r="G262" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H262" t="s">
         <v>614</v>
@@ -9108,10 +9107,10 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C263" s="6">
         <v>-51</v>
@@ -9126,7 +9125,7 @@
         <v>36586</v>
       </c>
       <c r="G263" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H263" t="s">
         <v>614</v>
@@ -9134,10 +9133,10 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C264" s="6">
         <v>5</v>
@@ -9152,7 +9151,7 @@
         <v>36586</v>
       </c>
       <c r="G264" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H264" t="s">
         <v>614</v>
@@ -9160,10 +9159,10 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C265" s="6">
         <v>0</v>
@@ -9178,7 +9177,7 @@
         <v>45314</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H265" t="s">
         <v>614</v>
@@ -9186,10 +9185,10 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C266" s="6">
         <v>0</v>
@@ -9204,7 +9203,7 @@
         <v>45308</v>
       </c>
       <c r="G266" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H266" t="s">
         <v>614</v>
@@ -9212,10 +9211,10 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="B267" s="5" t="s">
         <v>562</v>
-      </c>
-      <c r="B267" s="5" t="s">
-        <v>561</v>
       </c>
       <c r="C267" s="6">
         <v>0</v>
@@ -9230,7 +9229,7 @@
         <v>45308</v>
       </c>
       <c r="G267" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H267" t="s">
         <v>614</v>
@@ -9238,10 +9237,10 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C268" s="6">
         <v>0</v>
@@ -9256,7 +9255,7 @@
         <v>45309</v>
       </c>
       <c r="G268" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H268" t="s">
         <v>614</v>
@@ -9264,10 +9263,10 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C269" s="6">
         <v>0</v>
@@ -9282,7 +9281,7 @@
         <v>45310</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H269" t="s">
         <v>614</v>
@@ -9290,10 +9289,10 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C270" s="6">
         <v>0</v>
@@ -9308,7 +9307,7 @@
         <v>45314</v>
       </c>
       <c r="G270" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H270" t="s">
         <v>614</v>
@@ -9316,10 +9315,10 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C271" s="6">
         <v>0</v>
@@ -9334,7 +9333,7 @@
         <v>45314</v>
       </c>
       <c r="G271" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H271" t="s">
         <v>614</v>
@@ -9342,10 +9341,10 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="4" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C272" s="6">
         <v>0</v>
@@ -9360,7 +9359,7 @@
         <v>45314</v>
       </c>
       <c r="G272" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H272" t="s">
         <v>614</v>
@@ -9368,10 +9367,10 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" s="4" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C273" s="6">
         <v>0</v>
@@ -9386,7 +9385,7 @@
         <v>45314</v>
       </c>
       <c r="G273" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H273" t="s">
         <v>614</v>
@@ -9394,10 +9393,10 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C274" s="6">
         <v>0</v>
@@ -9412,7 +9411,7 @@
         <v>45314</v>
       </c>
       <c r="G274" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H274" t="s">
         <v>614</v>
@@ -9420,10 +9419,10 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" s="4" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C275" s="6">
         <v>0</v>
@@ -9438,7 +9437,7 @@
         <v>45314</v>
       </c>
       <c r="G275" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H275" t="s">
         <v>614</v>
@@ -9446,10 +9445,10 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" s="4" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C276" s="6">
         <v>0</v>
@@ -9464,7 +9463,7 @@
         <v>45314</v>
       </c>
       <c r="G276" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H276" t="s">
         <v>614</v>
@@ -9472,10 +9471,10 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="4" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C277" s="6">
         <v>0</v>
@@ -9490,7 +9489,7 @@
         <v>45314</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H277" t="s">
         <v>614</v>
@@ -9498,10 +9497,10 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" s="4" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C278" s="6">
         <v>0</v>
@@ -9516,7 +9515,7 @@
         <v>45314</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H278" t="s">
         <v>614</v>
@@ -9524,10 +9523,10 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C279" s="6">
         <v>0</v>
@@ -9542,7 +9541,7 @@
         <v>45314</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H279" t="s">
         <v>614</v>
@@ -9550,10 +9549,10 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" s="4" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C280" s="6">
         <v>0</v>
@@ -9568,7 +9567,7 @@
         <v>45314</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H280" t="s">
         <v>614</v>
@@ -9576,10 +9575,10 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" s="4" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C281" s="6">
         <v>0</v>
@@ -9594,7 +9593,7 @@
         <v>45314</v>
       </c>
       <c r="G281" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H281" t="s">
         <v>614</v>
@@ -9602,10 +9601,10 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" s="4" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C282" s="6">
         <v>0</v>
@@ -9620,7 +9619,7 @@
         <v>45314</v>
       </c>
       <c r="G282" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H282" t="s">
         <v>614</v>
@@ -9628,10 +9627,10 @@
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" s="4" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C283" s="6">
         <v>0</v>
@@ -9646,7 +9645,7 @@
         <v>45314</v>
       </c>
       <c r="G283" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H283" t="s">
         <v>614</v>
@@ -9654,10 +9653,10 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="4" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C284" s="6">
         <v>0</v>
@@ -9672,7 +9671,7 @@
         <v>45314</v>
       </c>
       <c r="G284" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H284" t="s">
         <v>614</v>
@@ -9680,10 +9679,10 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" s="4" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C285" s="6">
         <v>0</v>
@@ -9698,7 +9697,7 @@
         <v>45314</v>
       </c>
       <c r="G285" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H285" t="s">
         <v>614</v>
@@ -9706,10 +9705,10 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" s="4" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C286" s="6">
         <v>0</v>
@@ -9724,7 +9723,7 @@
         <v>45314</v>
       </c>
       <c r="G286" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H286" t="s">
         <v>614</v>
@@ -9732,10 +9731,10 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C287" s="6">
         <v>0</v>
@@ -9750,7 +9749,7 @@
         <v>45314</v>
       </c>
       <c r="G287" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H287" t="s">
         <v>614</v>
@@ -9758,10 +9757,10 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" s="4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C288" s="6">
         <v>0</v>
@@ -9776,7 +9775,7 @@
         <v>45323</v>
       </c>
       <c r="G288" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H288" t="s">
         <v>614</v>
@@ -9784,10 +9783,10 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" s="4" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C289" s="6">
         <v>0</v>
@@ -9802,7 +9801,7 @@
         <v>45323</v>
       </c>
       <c r="G289" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H289" t="s">
         <v>614</v>
@@ -9810,10 +9809,10 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" s="4" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C290" s="6">
         <v>0</v>
@@ -9828,7 +9827,7 @@
         <v>45323</v>
       </c>
       <c r="G290" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H290" t="s">
         <v>614</v>
@@ -9836,10 +9835,10 @@
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C291" s="6">
         <v>0</v>
@@ -9854,7 +9853,7 @@
         <v>45326</v>
       </c>
       <c r="G291" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H291" t="s">
         <v>614</v>

--- a/sofiback/public/uploads/FORMATO DE STOCK.xlsx
+++ b/sofiback/public/uploads/FORMATO DE STOCK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adimer\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Franz Esteban Santos\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF379D2-8C04-4D5B-A4C6-9FF0DF98BDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367F3701-685E-47AE-BA76-E8DFEA93532C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D2F416F3-D4B9-4A6B-A7CA-B672ACF68326}"/>
+    <workbookView xWindow="4365" yWindow="3015" windowWidth="15375" windowHeight="7785" xr2:uid="{D2F416F3-D4B9-4A6B-A7CA-B672ACF68326}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="612">
   <si>
     <t>Cod. Producto</t>
   </si>
@@ -1861,15 +1871,6 @@
   </si>
   <si>
     <t xml:space="preserve">CAJA SACHET HAMB. 83 RES CARRITOS SOFIA 36X2X83             </t>
-  </si>
-  <si>
-    <t>codigo</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
   </si>
 </sst>
 </file>
@@ -1916,7 +1917,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1939,22 +1940,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1964,7 +1954,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2279,21 +2268,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710009E2-DDEC-4EEF-83C0-A24B8580FFE9}">
-  <dimension ref="A1:H291"/>
+  <dimension ref="A1:G291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C265" workbookViewId="0">
-      <selection activeCell="H99" sqref="H99:H291"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="90.6640625" customWidth="1"/>
-    <col min="3" max="4" width="11.44140625" style="1"/>
-    <col min="7" max="7" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="90.7109375" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2315,11 +2304,8 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -2341,11 +2327,8 @@
       <c r="G2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -2367,11 +2350,8 @@
       <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -2393,11 +2373,8 @@
       <c r="G4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -2419,11 +2396,8 @@
       <c r="G5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H5" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -2445,11 +2419,8 @@
       <c r="G6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H6" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -2471,11 +2442,8 @@
       <c r="G7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H7" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -2497,11 +2465,8 @@
       <c r="G8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H8" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
@@ -2523,11 +2488,8 @@
       <c r="G9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H9" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
@@ -2549,11 +2511,8 @@
       <c r="G10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H10" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -2575,11 +2534,8 @@
       <c r="G11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H11" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
@@ -2601,11 +2557,8 @@
       <c r="G12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H12" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>30</v>
       </c>
@@ -2627,11 +2580,8 @@
       <c r="G13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H13" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -2653,11 +2603,8 @@
       <c r="G14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H14" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>34</v>
       </c>
@@ -2679,11 +2626,8 @@
       <c r="G15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H15" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>36</v>
       </c>
@@ -2705,11 +2649,8 @@
       <c r="G16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H16" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>38</v>
       </c>
@@ -2731,11 +2672,8 @@
       <c r="G17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H17" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>40</v>
       </c>
@@ -2757,11 +2695,8 @@
       <c r="G18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H18" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>42</v>
       </c>
@@ -2783,11 +2718,8 @@
       <c r="G19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H19" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>45</v>
       </c>
@@ -2809,11 +2741,8 @@
       <c r="G20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H20" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>47</v>
       </c>
@@ -2835,11 +2764,8 @@
       <c r="G21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H21" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>50</v>
       </c>
@@ -2861,11 +2787,8 @@
       <c r="G22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H22" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>53</v>
       </c>
@@ -2887,11 +2810,8 @@
       <c r="G23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H23" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>55</v>
       </c>
@@ -2913,11 +2833,8 @@
       <c r="G24" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H24" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>57</v>
       </c>
@@ -2939,11 +2856,8 @@
       <c r="G25" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H25" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>59</v>
       </c>
@@ -2965,11 +2879,8 @@
       <c r="G26" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H26" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>62</v>
       </c>
@@ -2991,11 +2902,8 @@
       <c r="G27" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H27" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>64</v>
       </c>
@@ -3017,11 +2925,8 @@
       <c r="G28" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H28" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>67</v>
       </c>
@@ -3043,11 +2948,8 @@
       <c r="G29" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H29" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>69</v>
       </c>
@@ -3069,11 +2971,8 @@
       <c r="G30" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H30" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>71</v>
       </c>
@@ -3095,11 +2994,8 @@
       <c r="G31" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H31" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>74</v>
       </c>
@@ -3121,11 +3017,8 @@
       <c r="G32" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H32" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>77</v>
       </c>
@@ -3147,11 +3040,8 @@
       <c r="G33" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H33" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>79</v>
       </c>
@@ -3173,11 +3063,8 @@
       <c r="G34" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H34" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>81</v>
       </c>
@@ -3199,11 +3086,8 @@
       <c r="G35" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H35" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>83</v>
       </c>
@@ -3225,11 +3109,8 @@
       <c r="G36" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H36" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>86</v>
       </c>
@@ -3251,11 +3132,8 @@
       <c r="G37" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H37" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>88</v>
       </c>
@@ -3277,11 +3155,8 @@
       <c r="G38" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H38" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>90</v>
       </c>
@@ -3303,11 +3178,8 @@
       <c r="G39" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H39" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>92</v>
       </c>
@@ -3329,11 +3201,8 @@
       <c r="G40" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H40" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>94</v>
       </c>
@@ -3355,11 +3224,8 @@
       <c r="G41" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H41" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>96</v>
       </c>
@@ -3381,11 +3247,8 @@
       <c r="G42" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H42" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>98</v>
       </c>
@@ -3407,11 +3270,8 @@
       <c r="G43" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H43" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>100</v>
       </c>
@@ -3433,11 +3293,8 @@
       <c r="G44" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H44" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>103</v>
       </c>
@@ -3459,11 +3316,8 @@
       <c r="G45" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H45" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>105</v>
       </c>
@@ -3485,11 +3339,8 @@
       <c r="G46" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H46" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>107</v>
       </c>
@@ -3511,11 +3362,8 @@
       <c r="G47" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H47" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>109</v>
       </c>
@@ -3537,11 +3385,8 @@
       <c r="G48" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H48" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>111</v>
       </c>
@@ -3563,11 +3408,8 @@
       <c r="G49" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H49" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>114</v>
       </c>
@@ -3589,11 +3431,8 @@
       <c r="G50" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H50" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>116</v>
       </c>
@@ -3615,11 +3454,8 @@
       <c r="G51" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H51" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>118</v>
       </c>
@@ -3641,11 +3477,8 @@
       <c r="G52" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="H52" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>121</v>
       </c>
@@ -3667,11 +3500,8 @@
       <c r="G53" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="H53" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>123</v>
       </c>
@@ -3693,11 +3523,8 @@
       <c r="G54" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H54" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>126</v>
       </c>
@@ -3719,11 +3546,8 @@
       <c r="G55" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H55" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>128</v>
       </c>
@@ -3745,11 +3569,8 @@
       <c r="G56" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H56" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>130</v>
       </c>
@@ -3771,11 +3592,8 @@
       <c r="G57" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H57" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>132</v>
       </c>
@@ -3797,11 +3615,8 @@
       <c r="G58" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H58" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>134</v>
       </c>
@@ -3823,11 +3638,8 @@
       <c r="G59" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H59" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>136</v>
       </c>
@@ -3849,11 +3661,8 @@
       <c r="G60" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H60" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>138</v>
       </c>
@@ -3875,11 +3684,8 @@
       <c r="G61" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H61" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>140</v>
       </c>
@@ -3901,11 +3707,8 @@
       <c r="G62" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H62" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>142</v>
       </c>
@@ -3927,11 +3730,8 @@
       <c r="G63" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H63" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>144</v>
       </c>
@@ -3953,11 +3753,8 @@
       <c r="G64" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H64" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>146</v>
       </c>
@@ -3979,11 +3776,8 @@
       <c r="G65" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H65" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>148</v>
       </c>
@@ -4005,11 +3799,8 @@
       <c r="G66" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H66" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>150</v>
       </c>
@@ -4031,11 +3822,8 @@
       <c r="G67" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H67" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>152</v>
       </c>
@@ -4057,11 +3845,8 @@
       <c r="G68" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="H68" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>155</v>
       </c>
@@ -4083,11 +3868,8 @@
       <c r="G69" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="H69" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>157</v>
       </c>
@@ -4109,11 +3891,8 @@
       <c r="G70" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="H70" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>159</v>
       </c>
@@ -4135,11 +3914,8 @@
       <c r="G71" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="H71" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>161</v>
       </c>
@@ -4161,11 +3937,8 @@
       <c r="G72" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="H72" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>163</v>
       </c>
@@ -4187,11 +3960,8 @@
       <c r="G73" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="H73" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>165</v>
       </c>
@@ -4213,11 +3983,8 @@
       <c r="G74" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="H74" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>168</v>
       </c>
@@ -4239,11 +4006,8 @@
       <c r="G75" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="H75" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>170</v>
       </c>
@@ -4265,11 +4029,8 @@
       <c r="G76" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="H76" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>172</v>
       </c>
@@ -4291,11 +4052,8 @@
       <c r="G77" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="H77" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>174</v>
       </c>
@@ -4317,11 +4075,8 @@
       <c r="G78" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="H78" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>176</v>
       </c>
@@ -4343,11 +4098,8 @@
       <c r="G79" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="H79" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>178</v>
       </c>
@@ -4369,11 +4121,8 @@
       <c r="G80" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="H80" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>180</v>
       </c>
@@ -4395,11 +4144,8 @@
       <c r="G81" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="H81" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>183</v>
       </c>
@@ -4421,11 +4167,8 @@
       <c r="G82" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="H82" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>185</v>
       </c>
@@ -4447,11 +4190,8 @@
       <c r="G83" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="H83" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>187</v>
       </c>
@@ -4473,11 +4213,8 @@
       <c r="G84" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="H84" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>189</v>
       </c>
@@ -4499,11 +4236,8 @@
       <c r="G85" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="H85" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>191</v>
       </c>
@@ -4525,11 +4259,8 @@
       <c r="G86" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="H86" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>193</v>
       </c>
@@ -4551,11 +4282,8 @@
       <c r="G87" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H87" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>195</v>
       </c>
@@ -4577,11 +4305,8 @@
       <c r="G88" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H88" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>197</v>
       </c>
@@ -4603,11 +4328,8 @@
       <c r="G89" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H89" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>199</v>
       </c>
@@ -4629,11 +4351,8 @@
       <c r="G90" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H90" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>201</v>
       </c>
@@ -4655,11 +4374,8 @@
       <c r="G91" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H91" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>203</v>
       </c>
@@ -4681,11 +4397,8 @@
       <c r="G92" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="H92" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>206</v>
       </c>
@@ -4707,11 +4420,8 @@
       <c r="G93" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="H93" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>208</v>
       </c>
@@ -4733,11 +4443,8 @@
       <c r="G94" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="H94" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>210</v>
       </c>
@@ -4759,11 +4466,8 @@
       <c r="G95" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="H95" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>212</v>
       </c>
@@ -4785,11 +4489,8 @@
       <c r="G96" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="H96" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>214</v>
       </c>
@@ -4811,11 +4512,8 @@
       <c r="G97" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="H97" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>216</v>
       </c>
@@ -4837,11 +4535,8 @@
       <c r="G98" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="H98" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>218</v>
       </c>
@@ -4863,11 +4558,8 @@
       <c r="G99" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="H99" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>220</v>
       </c>
@@ -4889,11 +4581,8 @@
       <c r="G100" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="H100" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>222</v>
       </c>
@@ -4915,11 +4604,8 @@
       <c r="G101" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="H101" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>224</v>
       </c>
@@ -4941,11 +4627,8 @@
       <c r="G102" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="H102" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>226</v>
       </c>
@@ -4967,11 +4650,8 @@
       <c r="G103" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="H103" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>228</v>
       </c>
@@ -4993,11 +4673,8 @@
       <c r="G104" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="H104" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>230</v>
       </c>
@@ -5019,11 +4696,8 @@
       <c r="G105" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H105" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>232</v>
       </c>
@@ -5045,11 +4719,8 @@
       <c r="G106" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H106" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>234</v>
       </c>
@@ -5071,11 +4742,8 @@
       <c r="G107" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H107" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>236</v>
       </c>
@@ -5097,11 +4765,8 @@
       <c r="G108" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H108" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>238</v>
       </c>
@@ -5123,11 +4788,8 @@
       <c r="G109" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H109" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>240</v>
       </c>
@@ -5149,11 +4811,8 @@
       <c r="G110" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H110" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>242</v>
       </c>
@@ -5175,11 +4834,8 @@
       <c r="G111" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H111" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>244</v>
       </c>
@@ -5201,11 +4857,8 @@
       <c r="G112" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H112" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>246</v>
       </c>
@@ -5227,11 +4880,8 @@
       <c r="G113" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H113" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>248</v>
       </c>
@@ -5253,11 +4903,8 @@
       <c r="G114" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H114" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>250</v>
       </c>
@@ -5279,11 +4926,8 @@
       <c r="G115" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H115" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>252</v>
       </c>
@@ -5305,11 +4949,8 @@
       <c r="G116" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H116" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>254</v>
       </c>
@@ -5331,11 +4972,8 @@
       <c r="G117" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H117" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>256</v>
       </c>
@@ -5357,11 +4995,8 @@
       <c r="G118" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H118" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>258</v>
       </c>
@@ -5383,11 +5018,8 @@
       <c r="G119" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H119" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>260</v>
       </c>
@@ -5409,11 +5041,8 @@
       <c r="G120" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H120" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>262</v>
       </c>
@@ -5435,11 +5064,8 @@
       <c r="G121" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="H121" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>265</v>
       </c>
@@ -5461,11 +5087,8 @@
       <c r="G122" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H122" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>267</v>
       </c>
@@ -5487,11 +5110,8 @@
       <c r="G123" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H123" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>269</v>
       </c>
@@ -5513,11 +5133,8 @@
       <c r="G124" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H124" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>271</v>
       </c>
@@ -5539,11 +5156,8 @@
       <c r="G125" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H125" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>273</v>
       </c>
@@ -5565,11 +5179,8 @@
       <c r="G126" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="H126" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>276</v>
       </c>
@@ -5591,11 +5202,8 @@
       <c r="G127" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="H127" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>278</v>
       </c>
@@ -5617,11 +5225,8 @@
       <c r="G128" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="H128" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>280</v>
       </c>
@@ -5643,11 +5248,8 @@
       <c r="G129" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="H129" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>282</v>
       </c>
@@ -5669,11 +5271,8 @@
       <c r="G130" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="H130" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>284</v>
       </c>
@@ -5695,11 +5294,8 @@
       <c r="G131" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="H131" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>286</v>
       </c>
@@ -5721,11 +5317,8 @@
       <c r="G132" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="H132" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>288</v>
       </c>
@@ -5747,11 +5340,8 @@
       <c r="G133" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="H133" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>290</v>
       </c>
@@ -5773,11 +5363,8 @@
       <c r="G134" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H134" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>292</v>
       </c>
@@ -5799,11 +5386,8 @@
       <c r="G135" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="H135" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>294</v>
       </c>
@@ -5825,11 +5409,8 @@
       <c r="G136" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="H136" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>297</v>
       </c>
@@ -5851,11 +5432,8 @@
       <c r="G137" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="H137" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>299</v>
       </c>
@@ -5877,11 +5455,8 @@
       <c r="G138" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="H138" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>301</v>
       </c>
@@ -5903,11 +5478,8 @@
       <c r="G139" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="H139" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>304</v>
       </c>
@@ -5929,11 +5501,8 @@
       <c r="G140" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="H140" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>306</v>
       </c>
@@ -5955,11 +5524,8 @@
       <c r="G141" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="H141" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>308</v>
       </c>
@@ -5981,11 +5547,8 @@
       <c r="G142" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="H142" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>310</v>
       </c>
@@ -6007,11 +5570,8 @@
       <c r="G143" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="H143" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>312</v>
       </c>
@@ -6033,11 +5593,8 @@
       <c r="G144" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="H144" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>314</v>
       </c>
@@ -6059,11 +5616,8 @@
       <c r="G145" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="H145" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>316</v>
       </c>
@@ -6085,11 +5639,8 @@
       <c r="G146" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="H146" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>318</v>
       </c>
@@ -6111,11 +5662,8 @@
       <c r="G147" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="H147" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>320</v>
       </c>
@@ -6137,11 +5685,8 @@
       <c r="G148" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="H148" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>322</v>
       </c>
@@ -6163,11 +5708,8 @@
       <c r="G149" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="H149" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>324</v>
       </c>
@@ -6189,11 +5731,8 @@
       <c r="G150" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="H150" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>326</v>
       </c>
@@ -6215,11 +5754,8 @@
       <c r="G151" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="H151" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>328</v>
       </c>
@@ -6241,11 +5777,8 @@
       <c r="G152" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="H152" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>330</v>
       </c>
@@ -6267,11 +5800,8 @@
       <c r="G153" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="H153" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>332</v>
       </c>
@@ -6293,11 +5823,8 @@
       <c r="G154" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="H154" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>334</v>
       </c>
@@ -6319,11 +5846,8 @@
       <c r="G155" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="H155" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>336</v>
       </c>
@@ -6345,11 +5869,8 @@
       <c r="G156" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="H156" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>338</v>
       </c>
@@ -6371,11 +5892,8 @@
       <c r="G157" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="H157" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>340</v>
       </c>
@@ -6397,11 +5915,8 @@
       <c r="G158" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H158" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>342</v>
       </c>
@@ -6423,11 +5938,8 @@
       <c r="G159" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H159" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>344</v>
       </c>
@@ -6449,11 +5961,8 @@
       <c r="G160" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H160" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>346</v>
       </c>
@@ -6475,11 +5984,8 @@
       <c r="G161" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H161" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>348</v>
       </c>
@@ -6501,11 +6007,8 @@
       <c r="G162" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H162" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>350</v>
       </c>
@@ -6527,11 +6030,8 @@
       <c r="G163" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H163" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>352</v>
       </c>
@@ -6553,11 +6053,8 @@
       <c r="G164" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H164" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
         <v>354</v>
       </c>
@@ -6579,11 +6076,8 @@
       <c r="G165" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H165" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>356</v>
       </c>
@@ -6605,11 +6099,8 @@
       <c r="G166" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H166" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>358</v>
       </c>
@@ -6631,11 +6122,8 @@
       <c r="G167" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H167" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>360</v>
       </c>
@@ -6657,11 +6145,8 @@
       <c r="G168" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H168" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>362</v>
       </c>
@@ -6683,11 +6168,8 @@
       <c r="G169" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H169" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>364</v>
       </c>
@@ -6709,11 +6191,8 @@
       <c r="G170" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H170" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>366</v>
       </c>
@@ -6735,11 +6214,8 @@
       <c r="G171" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H171" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>368</v>
       </c>
@@ -6761,11 +6237,8 @@
       <c r="G172" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H172" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>370</v>
       </c>
@@ -6787,11 +6260,8 @@
       <c r="G173" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H173" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>372</v>
       </c>
@@ -6813,11 +6283,8 @@
       <c r="G174" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H174" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>374</v>
       </c>
@@ -6839,11 +6306,8 @@
       <c r="G175" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H175" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>376</v>
       </c>
@@ -6865,11 +6329,8 @@
       <c r="G176" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H176" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>378</v>
       </c>
@@ -6891,11 +6352,8 @@
       <c r="G177" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H177" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>380</v>
       </c>
@@ -6917,11 +6375,8 @@
       <c r="G178" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H178" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>382</v>
       </c>
@@ -6943,11 +6398,8 @@
       <c r="G179" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H179" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>384</v>
       </c>
@@ -6969,11 +6421,8 @@
       <c r="G180" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H180" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>386</v>
       </c>
@@ -6995,11 +6444,8 @@
       <c r="G181" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="H181" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>389</v>
       </c>
@@ -7021,11 +6467,8 @@
       <c r="G182" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="H182" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>391</v>
       </c>
@@ -7047,11 +6490,8 @@
       <c r="G183" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="H183" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>393</v>
       </c>
@@ -7073,11 +6513,8 @@
       <c r="G184" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="H184" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
         <v>395</v>
       </c>
@@ -7099,11 +6536,8 @@
       <c r="G185" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="H185" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>397</v>
       </c>
@@ -7125,11 +6559,8 @@
       <c r="G186" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="H186" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
         <v>399</v>
       </c>
@@ -7151,11 +6582,8 @@
       <c r="G187" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="H187" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
         <v>402</v>
       </c>
@@ -7177,11 +6605,8 @@
       <c r="G188" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="H188" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
         <v>404</v>
       </c>
@@ -7203,11 +6628,8 @@
       <c r="G189" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="H189" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>406</v>
       </c>
@@ -7229,11 +6651,8 @@
       <c r="G190" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="H190" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
         <v>408</v>
       </c>
@@ -7255,11 +6674,8 @@
       <c r="G191" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="H191" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>410</v>
       </c>
@@ -7281,11 +6697,8 @@
       <c r="G192" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="H192" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>412</v>
       </c>
@@ -7307,11 +6720,8 @@
       <c r="G193" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="H193" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>414</v>
       </c>
@@ -7333,11 +6743,8 @@
       <c r="G194" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="H194" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>416</v>
       </c>
@@ -7359,11 +6766,8 @@
       <c r="G195" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="H195" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>418</v>
       </c>
@@ -7385,11 +6789,8 @@
       <c r="G196" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="H196" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>420</v>
       </c>
@@ -7411,11 +6812,8 @@
       <c r="G197" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="H197" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>423</v>
       </c>
@@ -7437,11 +6835,8 @@
       <c r="G198" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="H198" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>425</v>
       </c>
@@ -7463,11 +6858,8 @@
       <c r="G199" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="H199" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>427</v>
       </c>
@@ -7489,11 +6881,8 @@
       <c r="G200" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="H200" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
         <v>429</v>
       </c>
@@ -7515,11 +6904,8 @@
       <c r="G201" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="H201" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
         <v>431</v>
       </c>
@@ -7541,11 +6927,8 @@
       <c r="G202" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="H202" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
         <v>433</v>
       </c>
@@ -7567,11 +6950,8 @@
       <c r="G203" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="H203" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
         <v>435</v>
       </c>
@@ -7593,11 +6973,8 @@
       <c r="G204" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="H204" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
         <v>437</v>
       </c>
@@ -7619,11 +6996,8 @@
       <c r="G205" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="H205" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
         <v>439</v>
       </c>
@@ -7645,11 +7019,8 @@
       <c r="G206" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="H206" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
         <v>441</v>
       </c>
@@ -7671,11 +7042,8 @@
       <c r="G207" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="H207" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
         <v>443</v>
       </c>
@@ -7697,11 +7065,8 @@
       <c r="G208" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="H208" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
         <v>445</v>
       </c>
@@ -7723,11 +7088,8 @@
       <c r="G209" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="H209" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>447</v>
       </c>
@@ -7749,11 +7111,8 @@
       <c r="G210" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="H210" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
         <v>449</v>
       </c>
@@ -7775,11 +7134,8 @@
       <c r="G211" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="H211" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
         <v>452</v>
       </c>
@@ -7801,11 +7157,8 @@
       <c r="G212" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="H212" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
         <v>454</v>
       </c>
@@ -7827,11 +7180,8 @@
       <c r="G213" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="H213" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
         <v>457</v>
       </c>
@@ -7853,11 +7203,8 @@
       <c r="G214" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="H214" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
         <v>459</v>
       </c>
@@ -7879,11 +7226,8 @@
       <c r="G215" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="H215" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
         <v>461</v>
       </c>
@@ -7905,11 +7249,8 @@
       <c r="G216" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="H216" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
         <v>463</v>
       </c>
@@ -7931,11 +7272,8 @@
       <c r="G217" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="H217" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
         <v>465</v>
       </c>
@@ -7957,11 +7295,8 @@
       <c r="G218" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="H218" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
         <v>467</v>
       </c>
@@ -7983,11 +7318,8 @@
       <c r="G219" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="H219" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
         <v>469</v>
       </c>
@@ -8009,11 +7341,8 @@
       <c r="G220" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="H220" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
         <v>471</v>
       </c>
@@ -8035,11 +7364,8 @@
       <c r="G221" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H221" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
         <v>473</v>
       </c>
@@ -8061,11 +7387,8 @@
       <c r="G222" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H222" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
         <v>475</v>
       </c>
@@ -8087,11 +7410,8 @@
       <c r="G223" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H223" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
         <v>477</v>
       </c>
@@ -8113,11 +7433,8 @@
       <c r="G224" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="H224" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
         <v>479</v>
       </c>
@@ -8139,11 +7456,8 @@
       <c r="G225" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="H225" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
         <v>481</v>
       </c>
@@ -8165,11 +7479,8 @@
       <c r="G226" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="H226" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
         <v>483</v>
       </c>
@@ -8191,11 +7502,8 @@
       <c r="G227" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="H227" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
         <v>485</v>
       </c>
@@ -8217,11 +7525,8 @@
       <c r="G228" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="H228" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
         <v>487</v>
       </c>
@@ -8243,11 +7548,8 @@
       <c r="G229" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="H229" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
         <v>489</v>
       </c>
@@ -8269,11 +7571,8 @@
       <c r="G230" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="H230" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
         <v>491</v>
       </c>
@@ -8295,11 +7594,8 @@
       <c r="G231" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="H231" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
         <v>493</v>
       </c>
@@ -8321,11 +7617,8 @@
       <c r="G232" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H232" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
         <v>495</v>
       </c>
@@ -8347,11 +7640,8 @@
       <c r="G233" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="H233" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
         <v>497</v>
       </c>
@@ -8373,11 +7663,8 @@
       <c r="G234" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H234" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
         <v>499</v>
       </c>
@@ -8399,11 +7686,8 @@
       <c r="G235" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H235" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
         <v>501</v>
       </c>
@@ -8425,11 +7709,8 @@
       <c r="G236" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H236" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
         <v>503</v>
       </c>
@@ -8451,11 +7732,8 @@
       <c r="G237" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="H237" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
         <v>505</v>
       </c>
@@ -8477,11 +7755,8 @@
       <c r="G238" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="H238" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
         <v>507</v>
       </c>
@@ -8503,11 +7778,8 @@
       <c r="G239" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="H239" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
         <v>509</v>
       </c>
@@ -8529,11 +7801,8 @@
       <c r="G240" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H240" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
         <v>511</v>
       </c>
@@ -8555,11 +7824,8 @@
       <c r="G241" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="H241" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
         <v>513</v>
       </c>
@@ -8581,11 +7847,8 @@
       <c r="G242" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="H242" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
         <v>515</v>
       </c>
@@ -8607,11 +7870,8 @@
       <c r="G243" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H243" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
         <v>517</v>
       </c>
@@ -8633,11 +7893,8 @@
       <c r="G244" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H244" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
         <v>519</v>
       </c>
@@ -8659,11 +7916,8 @@
       <c r="G245" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H245" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
         <v>521</v>
       </c>
@@ -8685,11 +7939,8 @@
       <c r="G246" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H246" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
         <v>523</v>
       </c>
@@ -8711,11 +7962,8 @@
       <c r="G247" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H247" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
         <v>525</v>
       </c>
@@ -8737,11 +7985,8 @@
       <c r="G248" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="H248" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
         <v>527</v>
       </c>
@@ -8763,11 +8008,8 @@
       <c r="G249" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H249" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
         <v>529</v>
       </c>
@@ -8789,11 +8031,8 @@
       <c r="G250" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H250" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
         <v>531</v>
       </c>
@@ -8815,11 +8054,8 @@
       <c r="G251" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="H251" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
         <v>533</v>
       </c>
@@ -8841,11 +8077,8 @@
       <c r="G252" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="H252" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
         <v>535</v>
       </c>
@@ -8867,11 +8100,8 @@
       <c r="G253" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="H253" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
         <v>537</v>
       </c>
@@ -8893,11 +8123,8 @@
       <c r="G254" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="H254" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
         <v>539</v>
       </c>
@@ -8919,11 +8146,8 @@
       <c r="G255" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="H255" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
         <v>541</v>
       </c>
@@ -8945,11 +8169,8 @@
       <c r="G256" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="H256" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
         <v>543</v>
       </c>
@@ -8971,11 +8192,8 @@
       <c r="G257" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="H257" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
         <v>545</v>
       </c>
@@ -8997,11 +8215,8 @@
       <c r="G258" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="H258" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
         <v>547</v>
       </c>
@@ -9023,11 +8238,8 @@
       <c r="G259" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H259" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
         <v>549</v>
       </c>
@@ -9049,11 +8261,8 @@
       <c r="G260" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="H260" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
         <v>551</v>
       </c>
@@ -9075,11 +8284,8 @@
       <c r="G261" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H261" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="s">
         <v>553</v>
       </c>
@@ -9101,11 +8307,8 @@
       <c r="G262" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H262" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
         <v>555</v>
       </c>
@@ -9127,11 +8330,8 @@
       <c r="G263" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H263" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
         <v>557</v>
       </c>
@@ -9153,11 +8353,8 @@
       <c r="G264" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H264" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
         <v>559</v>
       </c>
@@ -9179,11 +8376,8 @@
       <c r="G265" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H265" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
         <v>561</v>
       </c>
@@ -9205,11 +8399,8 @@
       <c r="G266" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H266" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
         <v>563</v>
       </c>
@@ -9231,11 +8422,8 @@
       <c r="G267" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H267" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
         <v>564</v>
       </c>
@@ -9257,11 +8445,8 @@
       <c r="G268" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H268" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
         <v>566</v>
       </c>
@@ -9283,11 +8468,8 @@
       <c r="G269" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="H269" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
         <v>568</v>
       </c>
@@ -9309,11 +8491,8 @@
       <c r="G270" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="H270" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
         <v>570</v>
       </c>
@@ -9335,11 +8514,8 @@
       <c r="G271" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="H271" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
         <v>572</v>
       </c>
@@ -9361,11 +8537,8 @@
       <c r="G272" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="H272" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
         <v>574</v>
       </c>
@@ -9387,11 +8560,8 @@
       <c r="G273" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="H273" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
         <v>576</v>
       </c>
@@ -9413,11 +8583,8 @@
       <c r="G274" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="H274" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
         <v>578</v>
       </c>
@@ -9439,11 +8606,8 @@
       <c r="G275" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="H275" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
         <v>580</v>
       </c>
@@ -9465,11 +8629,8 @@
       <c r="G276" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="H276" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
         <v>582</v>
       </c>
@@ -9491,11 +8652,8 @@
       <c r="G277" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="H277" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
         <v>584</v>
       </c>
@@ -9517,11 +8675,8 @@
       <c r="G278" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="H278" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
         <v>586</v>
       </c>
@@ -9543,11 +8698,8 @@
       <c r="G279" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="H279" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
         <v>588</v>
       </c>
@@ -9569,11 +8721,8 @@
       <c r="G280" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="H280" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
         <v>590</v>
       </c>
@@ -9595,11 +8744,8 @@
       <c r="G281" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="H281" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
         <v>592</v>
       </c>
@@ -9621,11 +8767,8 @@
       <c r="G282" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="H282" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
         <v>594</v>
       </c>
@@ -9647,11 +8790,8 @@
       <c r="G283" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="H283" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
         <v>596</v>
       </c>
@@ -9673,11 +8813,8 @@
       <c r="G284" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="H284" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
         <v>598</v>
       </c>
@@ -9699,11 +8836,8 @@
       <c r="G285" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="H285" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
         <v>600</v>
       </c>
@@ -9725,11 +8859,8 @@
       <c r="G286" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="H286" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
         <v>602</v>
       </c>
@@ -9751,11 +8882,8 @@
       <c r="G287" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="H287" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
         <v>604</v>
       </c>
@@ -9777,11 +8905,8 @@
       <c r="G288" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H288" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
         <v>606</v>
       </c>
@@ -9803,11 +8928,8 @@
       <c r="G289" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="H289" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
         <v>608</v>
       </c>
@@ -9829,11 +8951,8 @@
       <c r="G290" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="H290" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
         <v>610</v>
       </c>
@@ -9854,9 +8973,6 @@
       </c>
       <c r="G291" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="H291" t="s">
-        <v>614</v>
       </c>
     </row>
   </sheetData>
